--- a/concs/RootRegionLegend.xlsx
+++ b/concs/RootRegionLegend.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/Desktop/Projects/isa_projects/IELab/local/Roots/GlobalIELab/Settings/Root/Legends/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/concs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB113E-D9B4-8242-8395-C4041B07616B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30887C9-F14E-224D-A7C7-FFA866F227EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="5" r:id="rId1"/>
-    <sheet name="RootCountryLegend" sheetId="1" r:id="rId2"/>
+    <sheet name="RootCountryLegend" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1008">
   <si>
     <t>Root country number</t>
   </si>
@@ -2938,9 +2937,6 @@
     <t>Slovak Republic</t>
   </si>
   <si>
-    <t>Some tools for querying this file can be found in: /import/emily1/isa/Programs/Tools/root_country_legend</t>
-  </si>
-  <si>
     <t>FAO</t>
   </si>
   <si>
@@ -2984,21 +2980,6 @@
   </si>
   <si>
     <t>DRE</t>
-  </si>
-  <si>
-    <t>In sheet RootCountryLegend please do not add any columns before existing columns. Add new columns to the end.</t>
-  </si>
-  <si>
-    <t>In sheet RootCountryLegend, do not include empty cells, use the placeholder 'ZZZZ' instead.</t>
-  </si>
-  <si>
-    <t>If new name columns are added, check root country toolbox functions as new column may need to be added to search scope</t>
-  </si>
-  <si>
-    <t>After updating this file, run test_runner.m in the the toolbox to ensure your changes have not broken existing functionality.</t>
-  </si>
-  <si>
-    <t>Instructions:</t>
   </si>
   <si>
     <t>RE</t>
@@ -3421,56 +3402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A7"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>984</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L181" sqref="L181"/>
     </sheetView>
   </sheetViews>
@@ -3523,22 +3459,22 @@
         <v>936</v>
       </c>
       <c r="M1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="P1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="Q1" t="s">
+        <v>998</v>
+      </c>
+      <c r="R1" t="s">
         <v>1004</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -3921,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="O8" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
@@ -5371,7 +5307,7 @@
         <v>140</v>
       </c>
       <c r="M34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N34" t="s">
         <v>9</v>
@@ -5595,16 +5531,16 @@
         <v>156</v>
       </c>
       <c r="M38" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="O38" t="s">
         <v>9</v>
       </c>
       <c r="P38" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="Q38" t="s">
         <v>9</v>
@@ -5651,13 +5587,13 @@
         <v>384</v>
       </c>
       <c r="M39" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="N39" t="s">
         <v>9</v>
       </c>
       <c r="O39" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="P39" t="s">
         <v>9</v>
@@ -5763,7 +5699,7 @@
         <v>180</v>
       </c>
       <c r="M41" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N41" t="s">
         <v>9</v>
@@ -6435,7 +6371,7 @@
         <v>203</v>
       </c>
       <c r="M53" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="N53" t="s">
         <v>9</v>
@@ -6739,28 +6675,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C59" t="s">
+        <v>980</v>
+      </c>
+      <c r="D59" t="s">
         <v>981</v>
       </c>
-      <c r="C59" t="s">
-        <v>981</v>
-      </c>
-      <c r="D59" t="s">
-        <v>987</v>
-      </c>
       <c r="E59" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F59" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G59" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="H59" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="I59" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="J59" t="s">
         <v>918</v>
@@ -6778,7 +6714,7 @@
         <v>9</v>
       </c>
       <c r="O59" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="P59" t="s">
         <v>9</v>
@@ -7231,7 +7167,7 @@
         <v>9</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="O67" t="s">
         <v>9</v>
@@ -7345,7 +7281,7 @@
         <v>9</v>
       </c>
       <c r="N69" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O69" t="s">
         <v>9</v>
@@ -8257,10 +8193,10 @@
         <v>9</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="O85" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="P85" t="s">
         <v>9</v>
@@ -9508,7 +9444,7 @@
         <v>410</v>
       </c>
       <c r="M107" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N107" t="s">
         <v>9</v>
@@ -10291,7 +10227,7 @@
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I121" t="s">
         <v>506</v>
@@ -10312,13 +10248,13 @@
         <v>9</v>
       </c>
       <c r="O121" t="s">
+        <v>994</v>
+      </c>
+      <c r="P121" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q121" t="s">
         <v>1000</v>
-      </c>
-      <c r="P121" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>1006</v>
       </c>
       <c r="R121" t="s">
         <v>9</v>
@@ -10489,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="Q124" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="R124" t="s">
         <v>9</v>
@@ -10762,22 +10698,22 @@
         <v>807</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="N129" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="P129" t="s">
         <v>9</v>
       </c>
       <c r="Q129" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="R129" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
@@ -12529,7 +12465,7 @@
         <v>408</v>
       </c>
       <c r="M160" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N160" t="s">
         <v>9</v>
@@ -12700,7 +12636,7 @@
         <v>275</v>
       </c>
       <c r="M163" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N163" t="s">
         <v>9</v>
@@ -13615,10 +13551,10 @@
         <v>9</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="P179" t="s">
         <v>9</v>
@@ -13729,10 +13665,10 @@
         <v>9</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="O181" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="P181" t="s">
         <v>9</v>
@@ -14023,7 +13959,7 @@
         <v>9</v>
       </c>
       <c r="Q186" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="R186" t="s">
         <v>9</v>
@@ -14053,7 +13989,7 @@
         <v>9</v>
       </c>
       <c r="H187" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I187" t="s">
         <v>9</v>
@@ -14593,7 +14529,7 @@
         <v>9</v>
       </c>
       <c r="Q196" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="R196" t="s">
         <v>9</v>
@@ -14929,7 +14865,7 @@
         <v>9</v>
       </c>
       <c r="O202" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="P202" t="s">
         <v>9</v>
@@ -15550,7 +15486,7 @@
         <v>92</v>
       </c>
       <c r="M213" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N213" t="s">
         <v>9</v>
@@ -15607,7 +15543,7 @@
         <v>704</v>
       </c>
       <c r="M214" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N214" t="s">
         <v>9</v>
@@ -15898,7 +15834,7 @@
         <v>9</v>
       </c>
       <c r="O219" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="P219" t="s">
         <v>9</v>

--- a/concs/RootRegionLegend.xlsx
+++ b/concs/RootRegionLegend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/concs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30887C9-F14E-224D-A7C7-FFA866F227EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74553C5-177C-534E-8CB0-187A8812B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3405,19 +3405,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L181" sqref="L181"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="29.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3441,22 +3441,22 @@
         <v>940</v>
       </c>
       <c r="G1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>935</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>943</v>
-      </c>
-      <c r="L1" t="s">
-        <v>936</v>
       </c>
       <c r="M1" t="s">
         <v>966</v>
@@ -3496,23 +3496,23 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="G2">
+        <v>533</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>533</v>
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -3552,11 +3552,11 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -3565,10 +3565,10 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -3608,11 +3608,11 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -3621,10 +3621,10 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -3664,8 +3664,8 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="G5">
+        <v>660</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -3674,13 +3674,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>929</v>
       </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>660</v>
+      <c r="L5" t="s">
+        <v>9</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -3720,11 +3720,11 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -3733,10 +3733,10 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -3776,11 +3776,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
@@ -3789,10 +3789,10 @@
         <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -3832,23 +3832,23 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="G8">
+        <v>530</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>530</v>
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -3888,23 +3888,23 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>784</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>784</v>
+      <c r="L9" t="s">
+        <v>9</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -3944,11 +3944,11 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -3957,10 +3957,10 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -4000,11 +4000,11 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
@@ -4013,10 +4013,10 @@
         <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -4056,23 +4056,23 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
+      <c r="G12">
+        <v>28</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
         <v>47</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>46</v>
       </c>
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>28</v>
+      <c r="L12" t="s">
+        <v>9</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -4112,8 +4112,8 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
-        <v>51</v>
+      <c r="G13">
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
@@ -4125,10 +4125,10 @@
         <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -4168,11 +4168,11 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
@@ -4181,10 +4181,10 @@
         <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -4224,11 +4224,11 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
       </c>
       <c r="I15" t="s">
         <v>59</v>
@@ -4237,10 +4237,10 @@
         <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -4280,11 +4280,11 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
         <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
@@ -4293,10 +4293,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -4336,11 +4336,11 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
@@ -4349,10 +4349,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
         <v>944</v>
-      </c>
-      <c r="L17">
-        <v>56</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -4392,11 +4392,11 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
         <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>71</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
@@ -4405,10 +4405,10 @@
         <v>71</v>
       </c>
       <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>204</v>
+        <v>71</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
@@ -4448,8 +4448,8 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
-        <v>75</v>
+      <c r="G19">
+        <v>854</v>
       </c>
       <c r="H19" t="s">
         <v>75</v>
@@ -4461,10 +4461,10 @@
         <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19">
-        <v>854</v>
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
@@ -4504,11 +4504,11 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
         <v>78</v>
-      </c>
-      <c r="H20" t="s">
-        <v>79</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -4517,10 +4517,10 @@
         <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
@@ -4560,11 +4560,11 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
         <v>83</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
       </c>
       <c r="I21" t="s">
         <v>84</v>
@@ -4573,10 +4573,10 @@
         <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
       </c>
       <c r="M21" t="s">
         <v>9</v>
@@ -4616,11 +4616,11 @@
       <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
         <v>88</v>
-      </c>
-      <c r="H22" t="s">
-        <v>89</v>
       </c>
       <c r="I22" t="s">
         <v>89</v>
@@ -4629,10 +4629,10 @@
         <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -4672,11 +4672,11 @@
       <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
         <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
       </c>
       <c r="I23" t="s">
         <v>94</v>
@@ -4685,10 +4685,10 @@
         <v>94</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23">
-        <v>44</v>
+        <v>94</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
       </c>
       <c r="M23" t="s">
         <v>9</v>
@@ -4728,8 +4728,8 @@
       <c r="F24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
-        <v>97</v>
+      <c r="G24">
+        <v>70</v>
       </c>
       <c r="H24" t="s">
         <v>97</v>
@@ -4741,10 +4741,10 @@
         <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24">
-        <v>70</v>
+        <v>97</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
       </c>
       <c r="M24" t="s">
         <v>9</v>
@@ -4784,11 +4784,11 @@
       <c r="F25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
         <v>101</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
       </c>
       <c r="I25" t="s">
         <v>102</v>
@@ -4797,10 +4797,10 @@
         <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
       </c>
       <c r="M25" t="s">
         <v>9</v>
@@ -4840,8 +4840,8 @@
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
-        <v>106</v>
+      <c r="G26">
+        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>106</v>
@@ -4853,10 +4853,10 @@
         <v>106</v>
       </c>
       <c r="K26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26">
-        <v>84</v>
+        <v>106</v>
+      </c>
+      <c r="L26" t="s">
+        <v>9</v>
       </c>
       <c r="M26" t="s">
         <v>9</v>
@@ -4896,23 +4896,23 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>9</v>
+      <c r="G27">
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
       </c>
       <c r="M27" t="s">
         <v>9</v>
@@ -4952,23 +4952,23 @@
       <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
         <v>111</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>112</v>
-      </c>
-      <c r="I28" t="s">
-        <v>113</v>
       </c>
       <c r="J28" t="s">
         <v>113</v>
       </c>
       <c r="K28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28">
-        <v>68</v>
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>9</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -5008,11 +5008,11 @@
       <c r="F29" t="s">
         <v>9</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
         <v>116</v>
-      </c>
-      <c r="H29" t="s">
-        <v>117</v>
       </c>
       <c r="I29" t="s">
         <v>117</v>
@@ -5021,10 +5021,10 @@
         <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="L29" t="s">
+        <v>9</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -5064,8 +5064,8 @@
       <c r="F30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
-        <v>121</v>
+      <c r="G30">
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>121</v>
@@ -5077,10 +5077,10 @@
         <v>121</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30">
-        <v>52</v>
+        <v>121</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -5120,23 +5120,23 @@
       <c r="F31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
-        <v>125</v>
+      <c r="G31">
+        <v>96</v>
       </c>
       <c r="H31" t="s">
         <v>125</v>
       </c>
       <c r="I31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
         <v>126</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>125</v>
       </c>
-      <c r="K31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31">
-        <v>96</v>
+      <c r="L31" t="s">
+        <v>9</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -5176,11 +5176,11 @@
       <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
         <v>130</v>
-      </c>
-      <c r="H32" t="s">
-        <v>131</v>
       </c>
       <c r="I32" t="s">
         <v>131</v>
@@ -5189,10 +5189,10 @@
         <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32">
-        <v>64</v>
+        <v>131</v>
+      </c>
+      <c r="L32" t="s">
+        <v>9</v>
       </c>
       <c r="M32" t="s">
         <v>9</v>
@@ -5232,11 +5232,11 @@
       <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
         <v>135</v>
-      </c>
-      <c r="H33" t="s">
-        <v>136</v>
       </c>
       <c r="I33" t="s">
         <v>136</v>
@@ -5245,10 +5245,10 @@
         <v>136</v>
       </c>
       <c r="K33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33">
-        <v>72</v>
+        <v>136</v>
+      </c>
+      <c r="L33" t="s">
+        <v>9</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -5288,11 +5288,11 @@
       <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
         <v>139</v>
-      </c>
-      <c r="H34" t="s">
-        <v>140</v>
       </c>
       <c r="I34" t="s">
         <v>140</v>
@@ -5301,10 +5301,10 @@
         <v>140</v>
       </c>
       <c r="K34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
         <v>962</v>
-      </c>
-      <c r="L34">
-        <v>140</v>
       </c>
       <c r="M34" t="s">
         <v>974</v>
@@ -5344,8 +5344,8 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" t="s">
-        <v>143</v>
+      <c r="G35">
+        <v>124</v>
       </c>
       <c r="H35" t="s">
         <v>143</v>
@@ -5357,10 +5357,10 @@
         <v>143</v>
       </c>
       <c r="K35" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="L35" t="s">
+        <v>9</v>
       </c>
       <c r="M35" t="s">
         <v>9</v>
@@ -5400,11 +5400,11 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36">
+        <v>756</v>
+      </c>
+      <c r="H36" t="s">
         <v>147</v>
-      </c>
-      <c r="H36" t="s">
-        <v>148</v>
       </c>
       <c r="I36" t="s">
         <v>148</v>
@@ -5413,10 +5413,10 @@
         <v>148</v>
       </c>
       <c r="K36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>756</v>
+        <v>148</v>
+      </c>
+      <c r="L36" t="s">
+        <v>9</v>
       </c>
       <c r="M36" t="s">
         <v>9</v>
@@ -5456,11 +5456,11 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37">
         <v>152</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I37" t="s">
         <v>153</v>
@@ -5469,10 +5469,10 @@
         <v>153</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="L37" t="s">
+        <v>9</v>
       </c>
       <c r="M37" t="s">
         <v>9</v>
@@ -5512,11 +5512,11 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>156</v>
+      </c>
+      <c r="H38" t="s">
         <v>157</v>
-      </c>
-      <c r="H38" t="s">
-        <v>158</v>
       </c>
       <c r="I38" t="s">
         <v>158</v>
@@ -5525,10 +5525,10 @@
         <v>158</v>
       </c>
       <c r="K38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" t="s">
         <v>945</v>
-      </c>
-      <c r="L38">
-        <v>156</v>
       </c>
       <c r="M38" t="s">
         <v>968</v>
@@ -5568,23 +5568,23 @@
       <c r="F39" t="s">
         <v>9</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>384</v>
+      </c>
+      <c r="H39" t="s">
         <v>162</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>163</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>164</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>922</v>
       </c>
-      <c r="K39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39">
-        <v>384</v>
+      <c r="L39" t="s">
+        <v>9</v>
       </c>
       <c r="M39" t="s">
         <v>986</v>
@@ -5624,11 +5624,11 @@
       <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40">
+        <v>120</v>
+      </c>
+      <c r="H40" t="s">
         <v>167</v>
-      </c>
-      <c r="H40" t="s">
-        <v>168</v>
       </c>
       <c r="I40" t="s">
         <v>168</v>
@@ -5637,10 +5637,10 @@
         <v>168</v>
       </c>
       <c r="K40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40">
-        <v>120</v>
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>9</v>
       </c>
       <c r="M40" t="s">
         <v>9</v>
@@ -5680,23 +5680,23 @@
       <c r="F41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
         <v>172</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>173</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>917</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>947</v>
-      </c>
-      <c r="L41">
-        <v>180</v>
       </c>
       <c r="M41" t="s">
         <v>969</v>
@@ -5736,11 +5736,11 @@
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42">
         <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I42" t="s">
         <v>179</v>
@@ -5749,10 +5749,10 @@
         <v>179</v>
       </c>
       <c r="K42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="L42" t="s">
+        <v>9</v>
       </c>
       <c r="M42" t="s">
         <v>9</v>
@@ -5792,23 +5792,23 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43">
+        <v>184</v>
+      </c>
+      <c r="H43" t="s">
         <v>183</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>184</v>
       </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
       <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
         <v>184</v>
       </c>
-      <c r="K43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43">
-        <v>184</v>
+      <c r="L43" t="s">
+        <v>9</v>
       </c>
       <c r="M43" t="s">
         <v>9</v>
@@ -5848,11 +5848,11 @@
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
         <v>187</v>
-      </c>
-      <c r="H44" t="s">
-        <v>188</v>
       </c>
       <c r="I44" t="s">
         <v>188</v>
@@ -5861,10 +5861,10 @@
         <v>188</v>
       </c>
       <c r="K44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44">
-        <v>170</v>
+        <v>188</v>
+      </c>
+      <c r="L44" t="s">
+        <v>9</v>
       </c>
       <c r="M44" t="s">
         <v>9</v>
@@ -5904,23 +5904,23 @@
       <c r="F45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45">
+        <v>174</v>
+      </c>
+      <c r="H45" t="s">
         <v>192</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>193</v>
       </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
       <c r="J45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
         <v>193</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>963</v>
-      </c>
-      <c r="L45">
-        <v>174</v>
       </c>
       <c r="M45" t="s">
         <v>9</v>
@@ -5960,23 +5960,23 @@
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
         <v>197</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>198</v>
-      </c>
-      <c r="I46" t="s">
-        <v>199</v>
       </c>
       <c r="J46" t="s">
         <v>199</v>
       </c>
       <c r="K46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46">
-        <v>132</v>
+        <v>199</v>
+      </c>
+      <c r="L46" t="s">
+        <v>9</v>
       </c>
       <c r="M46" t="s">
         <v>9</v>
@@ -6016,11 +6016,11 @@
       <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47">
+        <v>188</v>
+      </c>
+      <c r="H47" t="s">
         <v>203</v>
-      </c>
-      <c r="H47" t="s">
-        <v>204</v>
       </c>
       <c r="I47" t="s">
         <v>204</v>
@@ -6029,10 +6029,10 @@
         <v>204</v>
       </c>
       <c r="K47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47">
-        <v>188</v>
+        <v>204</v>
+      </c>
+      <c r="L47" t="s">
+        <v>9</v>
       </c>
       <c r="M47" t="s">
         <v>9</v>
@@ -6072,23 +6072,23 @@
       <c r="F48" t="s">
         <v>941</v>
       </c>
-      <c r="G48" t="s">
-        <v>207</v>
+      <c r="G48">
+        <v>200</v>
       </c>
       <c r="H48" t="s">
         <v>207</v>
       </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
         <v>207</v>
       </c>
-      <c r="K48" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48">
-        <v>200</v>
+      <c r="L48" t="s">
+        <v>9</v>
       </c>
       <c r="M48" t="s">
         <v>9</v>
@@ -6128,11 +6128,11 @@
       <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49">
+        <v>192</v>
+      </c>
+      <c r="H49" t="s">
         <v>210</v>
-      </c>
-      <c r="H49" t="s">
-        <v>211</v>
       </c>
       <c r="I49" t="s">
         <v>211</v>
@@ -6141,10 +6141,10 @@
         <v>211</v>
       </c>
       <c r="K49" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49">
-        <v>192</v>
+        <v>211</v>
+      </c>
+      <c r="L49" t="s">
+        <v>9</v>
       </c>
       <c r="M49" t="s">
         <v>9</v>
@@ -6184,8 +6184,8 @@
       <c r="F50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" t="s">
-        <v>9</v>
+      <c r="G50">
+        <v>531</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -6194,13 +6194,13 @@
         <v>9</v>
       </c>
       <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
         <v>937</v>
       </c>
-      <c r="K50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50">
-        <v>531</v>
+      <c r="L50" t="s">
+        <v>9</v>
       </c>
       <c r="M50" t="s">
         <v>9</v>
@@ -6240,23 +6240,23 @@
       <c r="F51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" t="s">
-        <v>9</v>
+      <c r="G51">
+        <v>136</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="J51" t="s">
         <v>214</v>
       </c>
       <c r="K51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51">
-        <v>136</v>
+        <v>214</v>
+      </c>
+      <c r="L51" t="s">
+        <v>9</v>
       </c>
       <c r="M51" t="s">
         <v>9</v>
@@ -6296,11 +6296,11 @@
       <c r="F52" t="s">
         <v>942</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
         <v>217</v>
-      </c>
-      <c r="H52" t="s">
-        <v>218</v>
       </c>
       <c r="I52" t="s">
         <v>218</v>
@@ -6309,10 +6309,10 @@
         <v>218</v>
       </c>
       <c r="K52" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52">
-        <v>196</v>
+        <v>218</v>
+      </c>
+      <c r="L52" t="s">
+        <v>9</v>
       </c>
       <c r="M52" t="s">
         <v>9</v>
@@ -6352,11 +6352,11 @@
       <c r="F53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53">
+        <v>203</v>
+      </c>
+      <c r="H53" t="s">
         <v>221</v>
-      </c>
-      <c r="H53" t="s">
-        <v>222</v>
       </c>
       <c r="I53" t="s">
         <v>222</v>
@@ -6365,10 +6365,10 @@
         <v>222</v>
       </c>
       <c r="K53" t="s">
+        <v>222</v>
+      </c>
+      <c r="L53" t="s">
         <v>946</v>
-      </c>
-      <c r="L53">
-        <v>203</v>
       </c>
       <c r="M53" t="s">
         <v>985</v>
@@ -6408,11 +6408,11 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54">
+        <v>276</v>
+      </c>
+      <c r="H54" t="s">
         <v>226</v>
-      </c>
-      <c r="H54" t="s">
-        <v>227</v>
       </c>
       <c r="I54" t="s">
         <v>227</v>
@@ -6421,10 +6421,10 @@
         <v>227</v>
       </c>
       <c r="K54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54">
-        <v>276</v>
+        <v>227</v>
+      </c>
+      <c r="L54" t="s">
+        <v>9</v>
       </c>
       <c r="M54" t="s">
         <v>9</v>
@@ -6464,11 +6464,11 @@
       <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55">
+        <v>262</v>
+      </c>
+      <c r="H55" t="s">
         <v>230</v>
-      </c>
-      <c r="H55" t="s">
-        <v>231</v>
       </c>
       <c r="I55" t="s">
         <v>231</v>
@@ -6477,10 +6477,10 @@
         <v>231</v>
       </c>
       <c r="K55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55">
-        <v>262</v>
+        <v>231</v>
+      </c>
+      <c r="L55" t="s">
+        <v>9</v>
       </c>
       <c r="M55" t="s">
         <v>9</v>
@@ -6520,23 +6520,23 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56">
+        <v>212</v>
+      </c>
+      <c r="H56" t="s">
         <v>235</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>236</v>
       </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
       <c r="J56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" t="s">
         <v>236</v>
       </c>
-      <c r="K56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56">
-        <v>212</v>
+      <c r="L56" t="s">
+        <v>9</v>
       </c>
       <c r="M56" t="s">
         <v>9</v>
@@ -6576,11 +6576,11 @@
       <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57">
+        <v>208</v>
+      </c>
+      <c r="H57" t="s">
         <v>240</v>
-      </c>
-      <c r="H57" t="s">
-        <v>241</v>
       </c>
       <c r="I57" t="s">
         <v>241</v>
@@ -6589,10 +6589,10 @@
         <v>241</v>
       </c>
       <c r="K57" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="L57" t="s">
+        <v>9</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -6632,11 +6632,11 @@
       <c r="F58" t="s">
         <v>9</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
         <v>244</v>
-      </c>
-      <c r="H58" t="s">
-        <v>245</v>
       </c>
       <c r="I58" t="s">
         <v>245</v>
@@ -6645,10 +6645,10 @@
         <v>245</v>
       </c>
       <c r="K58" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58">
-        <v>214</v>
+        <v>245</v>
+      </c>
+      <c r="L58" t="s">
+        <v>9</v>
       </c>
       <c r="M58" t="s">
         <v>9</v>
@@ -6689,23 +6689,23 @@
       <c r="F59" t="s">
         <v>980</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59">
+        <v>230</v>
+      </c>
+      <c r="H59" t="s">
         <v>982</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>983</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>984</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>918</v>
       </c>
-      <c r="K59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59">
-        <v>230</v>
+      <c r="L59" t="s">
+        <v>9</v>
       </c>
       <c r="M59" t="s">
         <v>9</v>
@@ -6746,8 +6746,8 @@
       <c r="F60" t="s">
         <v>9</v>
       </c>
-      <c r="G60" t="s">
-        <v>9</v>
+      <c r="G60">
+        <v>720</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -6756,13 +6756,13 @@
         <v>9</v>
       </c>
       <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" t="s">
         <v>930</v>
       </c>
-      <c r="K60" t="s">
-        <v>9</v>
-      </c>
-      <c r="L60">
-        <v>720</v>
+      <c r="L60" t="s">
+        <v>9</v>
       </c>
       <c r="M60" t="s">
         <v>9</v>
@@ -6803,11 +6803,11 @@
       <c r="F61" t="s">
         <v>9</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
         <v>250</v>
-      </c>
-      <c r="H61" t="s">
-        <v>251</v>
       </c>
       <c r="I61" t="s">
         <v>251</v>
@@ -6816,10 +6816,10 @@
         <v>251</v>
       </c>
       <c r="K61" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61">
-        <v>12</v>
+        <v>251</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
       </c>
       <c r="M61" t="s">
         <v>9</v>
@@ -6860,11 +6860,11 @@
       <c r="F62" t="s">
         <v>9</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62">
+        <v>218</v>
+      </c>
+      <c r="H62" t="s">
         <v>254</v>
-      </c>
-      <c r="H62" t="s">
-        <v>255</v>
       </c>
       <c r="I62" t="s">
         <v>255</v>
@@ -6873,10 +6873,10 @@
         <v>255</v>
       </c>
       <c r="K62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62">
-        <v>218</v>
+        <v>255</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
       </c>
       <c r="M62" t="s">
         <v>9</v>
@@ -6917,11 +6917,11 @@
       <c r="F63" t="s">
         <v>9</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63">
+        <v>818</v>
+      </c>
+      <c r="H63" t="s">
         <v>258</v>
-      </c>
-      <c r="H63" t="s">
-        <v>259</v>
       </c>
       <c r="I63" t="s">
         <v>259</v>
@@ -6930,10 +6930,10 @@
         <v>259</v>
       </c>
       <c r="K63" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63">
-        <v>818</v>
+        <v>259</v>
+      </c>
+      <c r="L63" t="s">
+        <v>9</v>
       </c>
       <c r="M63" t="s">
         <v>9</v>
@@ -6974,11 +6974,11 @@
       <c r="F64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64">
+        <v>232</v>
+      </c>
+      <c r="H64" t="s">
         <v>262</v>
-      </c>
-      <c r="H64" t="s">
-        <v>263</v>
       </c>
       <c r="I64" t="s">
         <v>263</v>
@@ -6987,10 +6987,10 @@
         <v>263</v>
       </c>
       <c r="K64" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64">
-        <v>232</v>
+        <v>263</v>
+      </c>
+      <c r="L64" t="s">
+        <v>9</v>
       </c>
       <c r="M64" t="s">
         <v>9</v>
@@ -7031,11 +7031,11 @@
       <c r="F65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65">
+        <v>724</v>
+      </c>
+      <c r="H65" t="s">
         <v>267</v>
-      </c>
-      <c r="H65" t="s">
-        <v>268</v>
       </c>
       <c r="I65" t="s">
         <v>268</v>
@@ -7044,10 +7044,10 @@
         <v>268</v>
       </c>
       <c r="K65" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65">
-        <v>724</v>
+        <v>268</v>
+      </c>
+      <c r="L65" t="s">
+        <v>9</v>
       </c>
       <c r="M65" t="s">
         <v>9</v>
@@ -7088,11 +7088,11 @@
       <c r="F66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66">
+        <v>233</v>
+      </c>
+      <c r="H66" t="s">
         <v>271</v>
-      </c>
-      <c r="H66" t="s">
-        <v>272</v>
       </c>
       <c r="I66" t="s">
         <v>272</v>
@@ -7101,10 +7101,10 @@
         <v>272</v>
       </c>
       <c r="K66" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66">
-        <v>233</v>
+        <v>272</v>
+      </c>
+      <c r="L66" t="s">
+        <v>9</v>
       </c>
       <c r="M66" t="s">
         <v>9</v>
@@ -7145,23 +7145,23 @@
       <c r="F67" t="s">
         <v>9</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67">
+        <v>231</v>
+      </c>
+      <c r="H67" t="s">
         <v>275</v>
-      </c>
-      <c r="H67" t="s">
-        <v>276</v>
       </c>
       <c r="I67" t="s">
         <v>276</v>
       </c>
       <c r="J67" t="s">
+        <v>276</v>
+      </c>
+      <c r="K67" t="s">
         <v>918</v>
       </c>
-      <c r="K67" t="s">
-        <v>9</v>
-      </c>
-      <c r="L67">
-        <v>231</v>
+      <c r="L67" t="s">
+        <v>9</v>
       </c>
       <c r="M67" t="s">
         <v>9</v>
@@ -7202,11 +7202,11 @@
       <c r="F68" t="s">
         <v>9</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68">
+        <v>246</v>
+      </c>
+      <c r="H68" t="s">
         <v>279</v>
-      </c>
-      <c r="H68" t="s">
-        <v>280</v>
       </c>
       <c r="I68" t="s">
         <v>280</v>
@@ -7215,10 +7215,10 @@
         <v>280</v>
       </c>
       <c r="K68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L68">
-        <v>246</v>
+        <v>280</v>
+      </c>
+      <c r="L68" t="s">
+        <v>9</v>
       </c>
       <c r="M68" t="s">
         <v>9</v>
@@ -7259,11 +7259,11 @@
       <c r="F69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69">
+        <v>242</v>
+      </c>
+      <c r="H69" t="s">
         <v>284</v>
-      </c>
-      <c r="H69" t="s">
-        <v>285</v>
       </c>
       <c r="I69" t="s">
         <v>285</v>
@@ -7272,10 +7272,10 @@
         <v>285</v>
       </c>
       <c r="K69" t="s">
-        <v>9</v>
-      </c>
-      <c r="L69">
-        <v>242</v>
+        <v>285</v>
+      </c>
+      <c r="L69" t="s">
+        <v>9</v>
       </c>
       <c r="M69" t="s">
         <v>9</v>
@@ -7316,11 +7316,11 @@
       <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="H70" t="s">
         <v>288</v>
-      </c>
-      <c r="H70" t="s">
-        <v>289</v>
       </c>
       <c r="I70" t="s">
         <v>289</v>
@@ -7329,10 +7329,10 @@
         <v>289</v>
       </c>
       <c r="K70" t="s">
-        <v>9</v>
-      </c>
-      <c r="L70">
-        <v>250</v>
+        <v>289</v>
+      </c>
+      <c r="L70" t="s">
+        <v>9</v>
       </c>
       <c r="M70" t="s">
         <v>9</v>
@@ -7373,23 +7373,23 @@
       <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71">
+        <v>583</v>
+      </c>
+      <c r="H71" t="s">
         <v>293</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>294</v>
       </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
       <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
         <v>927</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>960</v>
-      </c>
-      <c r="L71">
-        <v>583</v>
       </c>
       <c r="M71" t="s">
         <v>9</v>
@@ -7430,11 +7430,11 @@
       <c r="F72" t="s">
         <v>9</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72">
+        <v>266</v>
+      </c>
+      <c r="H72" t="s">
         <v>297</v>
-      </c>
-      <c r="H72" t="s">
-        <v>298</v>
       </c>
       <c r="I72" t="s">
         <v>298</v>
@@ -7443,10 +7443,10 @@
         <v>298</v>
       </c>
       <c r="K72" t="s">
-        <v>9</v>
-      </c>
-      <c r="L72">
-        <v>266</v>
+        <v>298</v>
+      </c>
+      <c r="L72" t="s">
+        <v>9</v>
       </c>
       <c r="M72" t="s">
         <v>9</v>
@@ -7487,23 +7487,23 @@
       <c r="F73" t="s">
         <v>9</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73">
+        <v>826</v>
+      </c>
+      <c r="H73" t="s">
         <v>302</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>303</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>304</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>932</v>
       </c>
-      <c r="K73" t="s">
-        <v>9</v>
-      </c>
-      <c r="L73">
-        <v>826</v>
+      <c r="L73" t="s">
+        <v>9</v>
       </c>
       <c r="M73" t="s">
         <v>9</v>
@@ -7544,8 +7544,8 @@
       <c r="F74" t="s">
         <v>9</v>
       </c>
-      <c r="G74" t="s">
-        <v>307</v>
+      <c r="G74">
+        <v>268</v>
       </c>
       <c r="H74" t="s">
         <v>307</v>
@@ -7557,10 +7557,10 @@
         <v>307</v>
       </c>
       <c r="K74" t="s">
-        <v>9</v>
-      </c>
-      <c r="L74">
-        <v>268</v>
+        <v>307</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
       </c>
       <c r="M74" t="s">
         <v>9</v>
@@ -7601,11 +7601,11 @@
       <c r="F75" t="s">
         <v>9</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75">
+        <v>288</v>
+      </c>
+      <c r="H75" t="s">
         <v>310</v>
-      </c>
-      <c r="H75" t="s">
-        <v>311</v>
       </c>
       <c r="I75" t="s">
         <v>311</v>
@@ -7614,10 +7614,10 @@
         <v>311</v>
       </c>
       <c r="K75" t="s">
-        <v>9</v>
-      </c>
-      <c r="L75">
-        <v>288</v>
+        <v>311</v>
+      </c>
+      <c r="L75" t="s">
+        <v>9</v>
       </c>
       <c r="M75" t="s">
         <v>9</v>
@@ -7658,11 +7658,11 @@
       <c r="F76" t="s">
         <v>9</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76">
+        <v>324</v>
+      </c>
+      <c r="H76" t="s">
         <v>315</v>
-      </c>
-      <c r="H76" t="s">
-        <v>316</v>
       </c>
       <c r="I76" t="s">
         <v>316</v>
@@ -7671,10 +7671,10 @@
         <v>316</v>
       </c>
       <c r="K76" t="s">
-        <v>9</v>
-      </c>
-      <c r="L76">
-        <v>324</v>
+        <v>316</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
       </c>
       <c r="M76" t="s">
         <v>9</v>
@@ -7715,11 +7715,11 @@
       <c r="F77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77">
+        <v>270</v>
+      </c>
+      <c r="H77" t="s">
         <v>320</v>
-      </c>
-      <c r="H77" t="s">
-        <v>321</v>
       </c>
       <c r="I77" t="s">
         <v>321</v>
@@ -7728,10 +7728,10 @@
         <v>321</v>
       </c>
       <c r="K77" t="s">
-        <v>9</v>
-      </c>
-      <c r="L77">
-        <v>270</v>
+        <v>321</v>
+      </c>
+      <c r="L77" t="s">
+        <v>9</v>
       </c>
       <c r="M77" t="s">
         <v>9</v>
@@ -7772,23 +7772,23 @@
       <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78">
+        <v>624</v>
+      </c>
+      <c r="H78" t="s">
         <v>325</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>326</v>
       </c>
-      <c r="I78" t="s">
-        <v>9</v>
-      </c>
       <c r="J78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" t="s">
         <v>326</v>
       </c>
-      <c r="K78" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78">
-        <v>624</v>
+      <c r="L78" t="s">
+        <v>9</v>
       </c>
       <c r="M78" t="s">
         <v>9</v>
@@ -7829,23 +7829,23 @@
       <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79">
+        <v>226</v>
+      </c>
+      <c r="H79" t="s">
         <v>330</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>331</v>
       </c>
-      <c r="I79" t="s">
-        <v>9</v>
-      </c>
       <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
         <v>331</v>
       </c>
-      <c r="K79" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79">
-        <v>226</v>
+      <c r="L79" t="s">
+        <v>9</v>
       </c>
       <c r="M79" t="s">
         <v>9</v>
@@ -7886,11 +7886,11 @@
       <c r="F80" t="s">
         <v>9</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80">
+        <v>300</v>
+      </c>
+      <c r="H80" t="s">
         <v>335</v>
-      </c>
-      <c r="H80" t="s">
-        <v>336</v>
       </c>
       <c r="I80" t="s">
         <v>336</v>
@@ -7899,10 +7899,10 @@
         <v>336</v>
       </c>
       <c r="K80" t="s">
-        <v>9</v>
-      </c>
-      <c r="L80">
-        <v>300</v>
+        <v>336</v>
+      </c>
+      <c r="L80" t="s">
+        <v>9</v>
       </c>
       <c r="M80" t="s">
         <v>9</v>
@@ -7943,23 +7943,23 @@
       <c r="F81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" t="s">
-        <v>340</v>
+      <c r="G81">
+        <v>308</v>
       </c>
       <c r="H81" t="s">
         <v>340</v>
       </c>
       <c r="I81" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="J81" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" t="s">
         <v>340</v>
       </c>
-      <c r="K81" t="s">
-        <v>9</v>
-      </c>
-      <c r="L81">
-        <v>308</v>
+      <c r="L81" t="s">
+        <v>9</v>
       </c>
       <c r="M81" t="s">
         <v>9</v>
@@ -8000,23 +8000,23 @@
       <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="G82" t="s">
-        <v>9</v>
+      <c r="G82">
+        <v>304</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="J82" t="s">
         <v>342</v>
       </c>
       <c r="K82" t="s">
-        <v>9</v>
-      </c>
-      <c r="L82">
-        <v>304</v>
+        <v>342</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
       </c>
       <c r="M82" t="s">
         <v>9</v>
@@ -8057,11 +8057,11 @@
       <c r="F83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83">
+        <v>320</v>
+      </c>
+      <c r="H83" t="s">
         <v>346</v>
-      </c>
-      <c r="H83" t="s">
-        <v>347</v>
       </c>
       <c r="I83" t="s">
         <v>347</v>
@@ -8070,10 +8070,10 @@
         <v>347</v>
       </c>
       <c r="K83" t="s">
-        <v>9</v>
-      </c>
-      <c r="L83">
-        <v>320</v>
+        <v>347</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
       </c>
       <c r="M83" t="s">
         <v>9</v>
@@ -8114,11 +8114,11 @@
       <c r="F84" t="s">
         <v>9</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84">
+        <v>328</v>
+      </c>
+      <c r="H84" t="s">
         <v>350</v>
-      </c>
-      <c r="H84" t="s">
-        <v>351</v>
       </c>
       <c r="I84" t="s">
         <v>351</v>
@@ -8127,10 +8127,10 @@
         <v>351</v>
       </c>
       <c r="K84" t="s">
+        <v>351</v>
+      </c>
+      <c r="L84" t="s">
         <v>950</v>
-      </c>
-      <c r="L84">
-        <v>328</v>
       </c>
       <c r="M84" t="s">
         <v>9</v>
@@ -8171,23 +8171,23 @@
       <c r="F85" t="s">
         <v>9</v>
       </c>
-      <c r="G85" t="s">
-        <v>9</v>
+      <c r="G85">
+        <v>344</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
       </c>
       <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
         <v>353</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>920</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>951</v>
-      </c>
-      <c r="L85">
-        <v>344</v>
       </c>
       <c r="M85" t="s">
         <v>9</v>
@@ -8228,11 +8228,11 @@
       <c r="F86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86">
+        <v>340</v>
+      </c>
+      <c r="H86" t="s">
         <v>357</v>
-      </c>
-      <c r="H86" t="s">
-        <v>358</v>
       </c>
       <c r="I86" t="s">
         <v>358</v>
@@ -8241,10 +8241,10 @@
         <v>358</v>
       </c>
       <c r="K86" t="s">
-        <v>9</v>
-      </c>
-      <c r="L86">
-        <v>340</v>
+        <v>358</v>
+      </c>
+      <c r="L86" t="s">
+        <v>9</v>
       </c>
       <c r="M86" t="s">
         <v>9</v>
@@ -8285,11 +8285,11 @@
       <c r="F87" t="s">
         <v>9</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87">
+        <v>191</v>
+      </c>
+      <c r="H87" t="s">
         <v>362</v>
-      </c>
-      <c r="H87" t="s">
-        <v>363</v>
       </c>
       <c r="I87" t="s">
         <v>363</v>
@@ -8298,10 +8298,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s">
-        <v>9</v>
-      </c>
-      <c r="L87">
-        <v>191</v>
+        <v>363</v>
+      </c>
+      <c r="L87" t="s">
+        <v>9</v>
       </c>
       <c r="M87" t="s">
         <v>9</v>
@@ -8342,11 +8342,11 @@
       <c r="F88" t="s">
         <v>9</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88">
+        <v>332</v>
+      </c>
+      <c r="H88" t="s">
         <v>367</v>
-      </c>
-      <c r="H88" t="s">
-        <v>368</v>
       </c>
       <c r="I88" t="s">
         <v>368</v>
@@ -8355,10 +8355,10 @@
         <v>368</v>
       </c>
       <c r="K88" t="s">
-        <v>9</v>
-      </c>
-      <c r="L88">
-        <v>332</v>
+        <v>368</v>
+      </c>
+      <c r="L88" t="s">
+        <v>9</v>
       </c>
       <c r="M88" t="s">
         <v>9</v>
@@ -8399,8 +8399,8 @@
       <c r="F89" t="s">
         <v>9</v>
       </c>
-      <c r="G89" t="s">
-        <v>371</v>
+      <c r="G89">
+        <v>348</v>
       </c>
       <c r="H89" t="s">
         <v>371</v>
@@ -8412,10 +8412,10 @@
         <v>371</v>
       </c>
       <c r="K89" t="s">
-        <v>9</v>
-      </c>
-      <c r="L89">
-        <v>348</v>
+        <v>371</v>
+      </c>
+      <c r="L89" t="s">
+        <v>9</v>
       </c>
       <c r="M89" t="s">
         <v>9</v>
@@ -8456,11 +8456,11 @@
       <c r="F90" t="s">
         <v>9</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90">
+        <v>360</v>
+      </c>
+      <c r="H90" t="s">
         <v>375</v>
-      </c>
-      <c r="H90" t="s">
-        <v>376</v>
       </c>
       <c r="I90" t="s">
         <v>376</v>
@@ -8469,10 +8469,10 @@
         <v>376</v>
       </c>
       <c r="K90" t="s">
-        <v>9</v>
-      </c>
-      <c r="L90">
-        <v>360</v>
+        <v>376</v>
+      </c>
+      <c r="L90" t="s">
+        <v>9</v>
       </c>
       <c r="M90" t="s">
         <v>9</v>
@@ -8513,11 +8513,11 @@
       <c r="F91" t="s">
         <v>9</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91">
+        <v>356</v>
+      </c>
+      <c r="H91" t="s">
         <v>379</v>
-      </c>
-      <c r="H91" t="s">
-        <v>380</v>
       </c>
       <c r="I91" t="s">
         <v>380</v>
@@ -8526,10 +8526,10 @@
         <v>380</v>
       </c>
       <c r="K91" t="s">
-        <v>9</v>
-      </c>
-      <c r="L91">
-        <v>356</v>
+        <v>380</v>
+      </c>
+      <c r="L91" t="s">
+        <v>9</v>
       </c>
       <c r="M91" t="s">
         <v>9</v>
@@ -8570,8 +8570,8 @@
       <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="G92" t="s">
-        <v>384</v>
+      <c r="G92">
+        <v>372</v>
       </c>
       <c r="H92" t="s">
         <v>384</v>
@@ -8583,10 +8583,10 @@
         <v>384</v>
       </c>
       <c r="K92" t="s">
-        <v>9</v>
-      </c>
-      <c r="L92">
-        <v>372</v>
+        <v>384</v>
+      </c>
+      <c r="L92" t="s">
+        <v>9</v>
       </c>
       <c r="M92" t="s">
         <v>9</v>
@@ -8627,23 +8627,23 @@
       <c r="F93" t="s">
         <v>9</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93">
+        <v>364</v>
+      </c>
+      <c r="H93" t="s">
         <v>388</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>389</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>390</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>921</v>
       </c>
-      <c r="K93" t="s">
-        <v>9</v>
-      </c>
-      <c r="L93">
-        <v>364</v>
+      <c r="L93" t="s">
+        <v>9</v>
       </c>
       <c r="M93" t="s">
         <v>9</v>
@@ -8684,11 +8684,11 @@
       <c r="F94" t="s">
         <v>9</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94">
+        <v>368</v>
+      </c>
+      <c r="H94" t="s">
         <v>393</v>
-      </c>
-      <c r="H94" t="s">
-        <v>394</v>
       </c>
       <c r="I94" t="s">
         <v>394</v>
@@ -8697,10 +8697,10 @@
         <v>394</v>
       </c>
       <c r="K94" t="s">
-        <v>9</v>
-      </c>
-      <c r="L94">
-        <v>368</v>
+        <v>394</v>
+      </c>
+      <c r="L94" t="s">
+        <v>9</v>
       </c>
       <c r="M94" t="s">
         <v>9</v>
@@ -8741,11 +8741,11 @@
       <c r="F95" t="s">
         <v>9</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95">
+        <v>352</v>
+      </c>
+      <c r="H95" t="s">
         <v>398</v>
-      </c>
-      <c r="H95" t="s">
-        <v>399</v>
       </c>
       <c r="I95" t="s">
         <v>399</v>
@@ -8754,10 +8754,10 @@
         <v>399</v>
       </c>
       <c r="K95" t="s">
-        <v>9</v>
-      </c>
-      <c r="L95">
-        <v>352</v>
+        <v>399</v>
+      </c>
+      <c r="L95" t="s">
+        <v>9</v>
       </c>
       <c r="M95" t="s">
         <v>9</v>
@@ -8798,11 +8798,11 @@
       <c r="F96" t="s">
         <v>9</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96">
+        <v>376</v>
+      </c>
+      <c r="H96" t="s">
         <v>402</v>
-      </c>
-      <c r="H96" t="s">
-        <v>403</v>
       </c>
       <c r="I96" t="s">
         <v>403</v>
@@ -8811,10 +8811,10 @@
         <v>403</v>
       </c>
       <c r="K96" t="s">
-        <v>9</v>
-      </c>
-      <c r="L96">
-        <v>376</v>
+        <v>403</v>
+      </c>
+      <c r="L96" t="s">
+        <v>9</v>
       </c>
       <c r="M96" t="s">
         <v>9</v>
@@ -8855,11 +8855,11 @@
       <c r="F97" t="s">
         <v>9</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97">
+        <v>380</v>
+      </c>
+      <c r="H97" t="s">
         <v>406</v>
-      </c>
-      <c r="H97" t="s">
-        <v>407</v>
       </c>
       <c r="I97" t="s">
         <v>407</v>
@@ -8868,10 +8868,10 @@
         <v>407</v>
       </c>
       <c r="K97" t="s">
-        <v>9</v>
-      </c>
-      <c r="L97">
-        <v>380</v>
+        <v>407</v>
+      </c>
+      <c r="L97" t="s">
+        <v>9</v>
       </c>
       <c r="M97" t="s">
         <v>9</v>
@@ -8912,8 +8912,8 @@
       <c r="F98" t="s">
         <v>9</v>
       </c>
-      <c r="G98" t="s">
-        <v>410</v>
+      <c r="G98">
+        <v>388</v>
       </c>
       <c r="H98" t="s">
         <v>410</v>
@@ -8925,10 +8925,10 @@
         <v>410</v>
       </c>
       <c r="K98" t="s">
-        <v>9</v>
-      </c>
-      <c r="L98">
-        <v>388</v>
+        <v>410</v>
+      </c>
+      <c r="L98" t="s">
+        <v>9</v>
       </c>
       <c r="M98" t="s">
         <v>9</v>
@@ -8969,11 +8969,11 @@
       <c r="F99" t="s">
         <v>9</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99">
+        <v>400</v>
+      </c>
+      <c r="H99" t="s">
         <v>413</v>
-      </c>
-      <c r="H99" t="s">
-        <v>414</v>
       </c>
       <c r="I99" t="s">
         <v>414</v>
@@ -8982,10 +8982,10 @@
         <v>414</v>
       </c>
       <c r="K99" t="s">
-        <v>9</v>
-      </c>
-      <c r="L99">
-        <v>400</v>
+        <v>414</v>
+      </c>
+      <c r="L99" t="s">
+        <v>9</v>
       </c>
       <c r="M99" t="s">
         <v>9</v>
@@ -9026,8 +9026,8 @@
       <c r="F100" t="s">
         <v>9</v>
       </c>
-      <c r="G100" t="s">
-        <v>417</v>
+      <c r="G100">
+        <v>392</v>
       </c>
       <c r="H100" t="s">
         <v>417</v>
@@ -9039,10 +9039,10 @@
         <v>417</v>
       </c>
       <c r="K100" t="s">
-        <v>9</v>
-      </c>
-      <c r="L100">
-        <v>392</v>
+        <v>417</v>
+      </c>
+      <c r="L100" t="s">
+        <v>9</v>
       </c>
       <c r="M100" t="s">
         <v>9</v>
@@ -9083,11 +9083,11 @@
       <c r="F101" t="s">
         <v>9</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101">
+        <v>398</v>
+      </c>
+      <c r="H101" t="s">
         <v>420</v>
-      </c>
-      <c r="H101" t="s">
-        <v>421</v>
       </c>
       <c r="I101" t="s">
         <v>421</v>
@@ -9096,10 +9096,10 @@
         <v>421</v>
       </c>
       <c r="K101" t="s">
-        <v>9</v>
-      </c>
-      <c r="L101">
-        <v>398</v>
+        <v>421</v>
+      </c>
+      <c r="L101" t="s">
+        <v>9</v>
       </c>
       <c r="M101" t="s">
         <v>9</v>
@@ -9140,11 +9140,11 @@
       <c r="F102" t="s">
         <v>9</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102">
+        <v>404</v>
+      </c>
+      <c r="H102" t="s">
         <v>424</v>
-      </c>
-      <c r="H102" t="s">
-        <v>425</v>
       </c>
       <c r="I102" t="s">
         <v>425</v>
@@ -9153,10 +9153,10 @@
         <v>425</v>
       </c>
       <c r="K102" t="s">
-        <v>9</v>
-      </c>
-      <c r="L102">
-        <v>404</v>
+        <v>425</v>
+      </c>
+      <c r="L102" t="s">
+        <v>9</v>
       </c>
       <c r="M102" t="s">
         <v>9</v>
@@ -9197,11 +9197,11 @@
       <c r="F103" t="s">
         <v>9</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103">
+        <v>417</v>
+      </c>
+      <c r="H103" t="s">
         <v>429</v>
-      </c>
-      <c r="H103" t="s">
-        <v>430</v>
       </c>
       <c r="I103" t="s">
         <v>430</v>
@@ -9210,10 +9210,10 @@
         <v>430</v>
       </c>
       <c r="K103" t="s">
+        <v>430</v>
+      </c>
+      <c r="L103" t="s">
         <v>961</v>
-      </c>
-      <c r="L103">
-        <v>417</v>
       </c>
       <c r="M103" t="s">
         <v>9</v>
@@ -9254,11 +9254,11 @@
       <c r="F104" t="s">
         <v>9</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104">
+        <v>116</v>
+      </c>
+      <c r="H104" t="s">
         <v>434</v>
-      </c>
-      <c r="H104" t="s">
-        <v>435</v>
       </c>
       <c r="I104" t="s">
         <v>435</v>
@@ -9267,10 +9267,10 @@
         <v>435</v>
       </c>
       <c r="K104" t="s">
-        <v>9</v>
-      </c>
-      <c r="L104">
-        <v>116</v>
+        <v>435</v>
+      </c>
+      <c r="L104" t="s">
+        <v>9</v>
       </c>
       <c r="M104" t="s">
         <v>9</v>
@@ -9311,23 +9311,23 @@
       <c r="F105" t="s">
         <v>9</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105">
+        <v>296</v>
+      </c>
+      <c r="H105" t="s">
         <v>438</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>439</v>
       </c>
-      <c r="I105" t="s">
-        <v>9</v>
-      </c>
       <c r="J105" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" t="s">
         <v>439</v>
       </c>
-      <c r="K105" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105">
-        <v>296</v>
+      <c r="L105" t="s">
+        <v>9</v>
       </c>
       <c r="M105" t="s">
         <v>9</v>
@@ -9368,23 +9368,23 @@
       <c r="F106" t="s">
         <v>9</v>
       </c>
-      <c r="G106" t="s">
-        <v>443</v>
+      <c r="G106">
+        <v>659</v>
       </c>
       <c r="H106" t="s">
         <v>443</v>
       </c>
       <c r="I106" t="s">
-        <v>9</v>
+        <v>443</v>
       </c>
       <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" t="s">
         <v>443</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>964</v>
-      </c>
-      <c r="L106">
-        <v>659</v>
       </c>
       <c r="M106" t="s">
         <v>9</v>
@@ -9425,23 +9425,23 @@
       <c r="F107" t="s">
         <v>9</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107">
+        <v>410</v>
+      </c>
+      <c r="H107" t="s">
         <v>447</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>448</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>449</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>448</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>953</v>
-      </c>
-      <c r="L107">
-        <v>410</v>
       </c>
       <c r="M107" t="s">
         <v>971</v>
@@ -9482,8 +9482,8 @@
       <c r="F108" t="s">
         <v>9</v>
       </c>
-      <c r="G108" t="s">
-        <v>9</v>
+      <c r="G108">
+        <v>412</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
@@ -9492,13 +9492,13 @@
         <v>9</v>
       </c>
       <c r="J108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" t="s">
         <v>923</v>
       </c>
-      <c r="K108" t="s">
-        <v>9</v>
-      </c>
-      <c r="L108">
-        <v>412</v>
+      <c r="L108" t="s">
+        <v>9</v>
       </c>
       <c r="M108" t="s">
         <v>9</v>
@@ -9539,11 +9539,11 @@
       <c r="F109" t="s">
         <v>9</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109">
+        <v>414</v>
+      </c>
+      <c r="H109" t="s">
         <v>454</v>
-      </c>
-      <c r="H109" t="s">
-        <v>455</v>
       </c>
       <c r="I109" t="s">
         <v>455</v>
@@ -9552,10 +9552,10 @@
         <v>455</v>
       </c>
       <c r="K109" t="s">
-        <v>9</v>
-      </c>
-      <c r="L109">
-        <v>414</v>
+        <v>455</v>
+      </c>
+      <c r="L109" t="s">
+        <v>9</v>
       </c>
       <c r="M109" t="s">
         <v>9</v>
@@ -9596,23 +9596,23 @@
       <c r="F110" t="s">
         <v>9</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110">
+        <v>418</v>
+      </c>
+      <c r="H110" t="s">
         <v>458</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>459</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>460</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>459</v>
       </c>
-      <c r="K110" t="s">
-        <v>9</v>
-      </c>
-      <c r="L110">
-        <v>418</v>
+      <c r="L110" t="s">
+        <v>9</v>
       </c>
       <c r="M110" t="s">
         <v>9</v>
@@ -9653,11 +9653,11 @@
       <c r="F111" t="s">
         <v>9</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111">
+        <v>422</v>
+      </c>
+      <c r="H111" t="s">
         <v>464</v>
-      </c>
-      <c r="H111" t="s">
-        <v>465</v>
       </c>
       <c r="I111" t="s">
         <v>465</v>
@@ -9666,10 +9666,10 @@
         <v>465</v>
       </c>
       <c r="K111" t="s">
-        <v>9</v>
-      </c>
-      <c r="L111">
-        <v>422</v>
+        <v>465</v>
+      </c>
+      <c r="L111" t="s">
+        <v>9</v>
       </c>
       <c r="M111" t="s">
         <v>9</v>
@@ -9710,11 +9710,11 @@
       <c r="F112" t="s">
         <v>9</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112">
+        <v>430</v>
+      </c>
+      <c r="H112" t="s">
         <v>469</v>
-      </c>
-      <c r="H112" t="s">
-        <v>470</v>
       </c>
       <c r="I112" t="s">
         <v>470</v>
@@ -9723,10 +9723,10 @@
         <v>470</v>
       </c>
       <c r="K112" t="s">
-        <v>9</v>
-      </c>
-      <c r="L112">
-        <v>430</v>
+        <v>470</v>
+      </c>
+      <c r="L112" t="s">
+        <v>9</v>
       </c>
       <c r="M112" t="s">
         <v>9</v>
@@ -9767,8 +9767,8 @@
       <c r="F113" t="s">
         <v>9</v>
       </c>
-      <c r="G113" t="s">
-        <v>474</v>
+      <c r="G113">
+        <v>434</v>
       </c>
       <c r="H113" t="s">
         <v>474</v>
@@ -9777,13 +9777,13 @@
         <v>474</v>
       </c>
       <c r="J113" t="s">
+        <v>474</v>
+      </c>
+      <c r="K113" t="s">
         <v>924</v>
       </c>
-      <c r="K113" t="s">
-        <v>9</v>
-      </c>
-      <c r="L113">
-        <v>434</v>
+      <c r="L113" t="s">
+        <v>9</v>
       </c>
       <c r="M113" t="s">
         <v>9</v>
@@ -9824,23 +9824,23 @@
       <c r="F114" t="s">
         <v>9</v>
       </c>
-      <c r="G114" t="s">
-        <v>478</v>
+      <c r="G114">
+        <v>662</v>
       </c>
       <c r="H114" t="s">
         <v>478</v>
       </c>
       <c r="I114" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="J114" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" t="s">
         <v>478</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>956</v>
-      </c>
-      <c r="L114">
-        <v>662</v>
       </c>
       <c r="M114" t="s">
         <v>9</v>
@@ -9881,23 +9881,23 @@
       <c r="F115" t="s">
         <v>9</v>
       </c>
-      <c r="G115" t="s">
-        <v>9</v>
+      <c r="G115">
+        <v>438</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="J115" t="s">
         <v>480</v>
       </c>
       <c r="K115" t="s">
-        <v>9</v>
-      </c>
-      <c r="L115">
-        <v>438</v>
+        <v>480</v>
+      </c>
+      <c r="L115" t="s">
+        <v>9</v>
       </c>
       <c r="M115" t="s">
         <v>9</v>
@@ -9938,11 +9938,11 @@
       <c r="F116" t="s">
         <v>9</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116">
+        <v>144</v>
+      </c>
+      <c r="H116" t="s">
         <v>484</v>
-      </c>
-      <c r="H116" t="s">
-        <v>485</v>
       </c>
       <c r="I116" t="s">
         <v>485</v>
@@ -9951,10 +9951,10 @@
         <v>485</v>
       </c>
       <c r="K116" t="s">
-        <v>9</v>
-      </c>
-      <c r="L116">
-        <v>144</v>
+        <v>485</v>
+      </c>
+      <c r="L116" t="s">
+        <v>9</v>
       </c>
       <c r="M116" t="s">
         <v>9</v>
@@ -9995,11 +9995,11 @@
       <c r="F117" t="s">
         <v>9</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117">
+        <v>426</v>
+      </c>
+      <c r="H117" t="s">
         <v>489</v>
-      </c>
-      <c r="H117" t="s">
-        <v>490</v>
       </c>
       <c r="I117" t="s">
         <v>490</v>
@@ -10008,10 +10008,10 @@
         <v>490</v>
       </c>
       <c r="K117" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117">
-        <v>426</v>
+        <v>490</v>
+      </c>
+      <c r="L117" t="s">
+        <v>9</v>
       </c>
       <c r="M117" t="s">
         <v>9</v>
@@ -10052,11 +10052,11 @@
       <c r="F118" t="s">
         <v>9</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118">
+        <v>440</v>
+      </c>
+      <c r="H118" t="s">
         <v>494</v>
-      </c>
-      <c r="H118" t="s">
-        <v>495</v>
       </c>
       <c r="I118" t="s">
         <v>495</v>
@@ -10065,10 +10065,10 @@
         <v>495</v>
       </c>
       <c r="K118" t="s">
-        <v>9</v>
-      </c>
-      <c r="L118">
-        <v>440</v>
+        <v>495</v>
+      </c>
+      <c r="L118" t="s">
+        <v>9</v>
       </c>
       <c r="M118" t="s">
         <v>9</v>
@@ -10109,11 +10109,11 @@
       <c r="F119" t="s">
         <v>9</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119">
+        <v>442</v>
+      </c>
+      <c r="H119" t="s">
         <v>498</v>
-      </c>
-      <c r="H119" t="s">
-        <v>499</v>
       </c>
       <c r="I119" t="s">
         <v>499</v>
@@ -10122,10 +10122,10 @@
         <v>499</v>
       </c>
       <c r="K119" t="s">
-        <v>9</v>
-      </c>
-      <c r="L119">
-        <v>442</v>
+        <v>499</v>
+      </c>
+      <c r="L119" t="s">
+        <v>9</v>
       </c>
       <c r="M119" t="s">
         <v>9</v>
@@ -10166,11 +10166,11 @@
       <c r="F120" t="s">
         <v>9</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120">
+        <v>428</v>
+      </c>
+      <c r="H120" t="s">
         <v>503</v>
-      </c>
-      <c r="H120" t="s">
-        <v>504</v>
       </c>
       <c r="I120" t="s">
         <v>504</v>
@@ -10179,10 +10179,10 @@
         <v>504</v>
       </c>
       <c r="K120" t="s">
-        <v>9</v>
-      </c>
-      <c r="L120">
-        <v>428</v>
+        <v>504</v>
+      </c>
+      <c r="L120" t="s">
+        <v>9</v>
       </c>
       <c r="M120" t="s">
         <v>9</v>
@@ -10223,23 +10223,23 @@
       <c r="F121" t="s">
         <v>9</v>
       </c>
-      <c r="G121" t="s">
-        <v>9</v>
+      <c r="G121">
+        <v>446</v>
       </c>
       <c r="H121" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" t="s">
         <v>975</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>506</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>925</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>954</v>
-      </c>
-      <c r="L121">
-        <v>446</v>
       </c>
       <c r="M121" t="s">
         <v>9</v>
@@ -10280,11 +10280,11 @@
       <c r="F122" t="s">
         <v>9</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122">
+        <v>504</v>
+      </c>
+      <c r="H122" t="s">
         <v>510</v>
-      </c>
-      <c r="H122" t="s">
-        <v>511</v>
       </c>
       <c r="I122" t="s">
         <v>511</v>
@@ -10293,10 +10293,10 @@
         <v>511</v>
       </c>
       <c r="K122" t="s">
-        <v>9</v>
-      </c>
-      <c r="L122">
-        <v>504</v>
+        <v>511</v>
+      </c>
+      <c r="L122" t="s">
+        <v>9</v>
       </c>
       <c r="M122" t="s">
         <v>9</v>
@@ -10337,11 +10337,11 @@
       <c r="F123" t="s">
         <v>9</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123">
+        <v>492</v>
+      </c>
+      <c r="H123" t="s">
         <v>515</v>
-      </c>
-      <c r="H123" t="s">
-        <v>516</v>
       </c>
       <c r="I123" t="s">
         <v>516</v>
@@ -10350,10 +10350,10 @@
         <v>516</v>
       </c>
       <c r="K123" t="s">
-        <v>9</v>
-      </c>
-      <c r="L123">
-        <v>492</v>
+        <v>516</v>
+      </c>
+      <c r="L123" t="s">
+        <v>9</v>
       </c>
       <c r="M123" t="s">
         <v>9</v>
@@ -10394,23 +10394,23 @@
       <c r="F124" t="s">
         <v>9</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124">
+        <v>498</v>
+      </c>
+      <c r="H124" t="s">
         <v>520</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>521</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>522</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>521</v>
       </c>
-      <c r="K124" t="s">
-        <v>9</v>
-      </c>
-      <c r="L124">
-        <v>498</v>
+      <c r="L124" t="s">
+        <v>9</v>
       </c>
       <c r="M124" t="s">
         <v>9</v>
@@ -10451,11 +10451,11 @@
       <c r="F125" t="s">
         <v>9</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125">
+        <v>450</v>
+      </c>
+      <c r="H125" t="s">
         <v>526</v>
-      </c>
-      <c r="H125" t="s">
-        <v>527</v>
       </c>
       <c r="I125" t="s">
         <v>527</v>
@@ -10464,10 +10464,10 @@
         <v>527</v>
       </c>
       <c r="K125" t="s">
-        <v>9</v>
-      </c>
-      <c r="L125">
-        <v>450</v>
+        <v>527</v>
+      </c>
+      <c r="L125" t="s">
+        <v>9</v>
       </c>
       <c r="M125" t="s">
         <v>9</v>
@@ -10508,11 +10508,11 @@
       <c r="F126" t="s">
         <v>9</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126">
+        <v>462</v>
+      </c>
+      <c r="H126" t="s">
         <v>530</v>
-      </c>
-      <c r="H126" t="s">
-        <v>531</v>
       </c>
       <c r="I126" t="s">
         <v>531</v>
@@ -10521,10 +10521,10 @@
         <v>531</v>
       </c>
       <c r="K126" t="s">
-        <v>9</v>
-      </c>
-      <c r="L126">
-        <v>462</v>
+        <v>531</v>
+      </c>
+      <c r="L126" t="s">
+        <v>9</v>
       </c>
       <c r="M126" t="s">
         <v>9</v>
@@ -10565,11 +10565,11 @@
       <c r="F127" t="s">
         <v>9</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127">
+        <v>484</v>
+      </c>
+      <c r="H127" t="s">
         <v>534</v>
-      </c>
-      <c r="H127" t="s">
-        <v>535</v>
       </c>
       <c r="I127" t="s">
         <v>535</v>
@@ -10578,10 +10578,10 @@
         <v>535</v>
       </c>
       <c r="K127" t="s">
-        <v>9</v>
-      </c>
-      <c r="L127">
-        <v>484</v>
+        <v>535</v>
+      </c>
+      <c r="L127" t="s">
+        <v>9</v>
       </c>
       <c r="M127" t="s">
         <v>9</v>
@@ -10622,23 +10622,23 @@
       <c r="F128" t="s">
         <v>9</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128">
+        <v>584</v>
+      </c>
+      <c r="H128" t="s">
         <v>539</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>540</v>
       </c>
-      <c r="I128" t="s">
-        <v>9</v>
-      </c>
       <c r="J128" t="s">
+        <v>9</v>
+      </c>
+      <c r="K128" t="s">
         <v>540</v>
       </c>
-      <c r="K128" t="s">
-        <v>9</v>
-      </c>
-      <c r="L128">
-        <v>584</v>
+      <c r="L128" t="s">
+        <v>9</v>
       </c>
       <c r="M128" t="s">
         <v>9</v>
@@ -10679,23 +10679,23 @@
       <c r="F129" t="s">
         <v>9</v>
       </c>
-      <c r="G129" t="s">
-        <v>543</v>
+      <c r="G129">
+        <v>807</v>
       </c>
       <c r="H129" t="s">
         <v>543</v>
       </c>
       <c r="I129" t="s">
+        <v>543</v>
+      </c>
+      <c r="J129" t="s">
         <v>544</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>543</v>
       </c>
-      <c r="K129" t="s">
-        <v>9</v>
-      </c>
-      <c r="L129">
-        <v>807</v>
+      <c r="L129" t="s">
+        <v>9</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>1005</v>
@@ -10736,11 +10736,11 @@
       <c r="F130" t="s">
         <v>9</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130">
+        <v>466</v>
+      </c>
+      <c r="H130" t="s">
         <v>547</v>
-      </c>
-      <c r="H130" t="s">
-        <v>548</v>
       </c>
       <c r="I130" t="s">
         <v>548</v>
@@ -10749,10 +10749,10 @@
         <v>548</v>
       </c>
       <c r="K130" t="s">
-        <v>9</v>
-      </c>
-      <c r="L130">
-        <v>466</v>
+        <v>548</v>
+      </c>
+      <c r="L130" t="s">
+        <v>9</v>
       </c>
       <c r="M130" t="s">
         <v>9</v>
@@ -10793,11 +10793,11 @@
       <c r="F131" t="s">
         <v>9</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131">
+        <v>470</v>
+      </c>
+      <c r="H131" t="s">
         <v>552</v>
-      </c>
-      <c r="H131" t="s">
-        <v>553</v>
       </c>
       <c r="I131" t="s">
         <v>553</v>
@@ -10806,10 +10806,10 @@
         <v>553</v>
       </c>
       <c r="K131" t="s">
-        <v>9</v>
-      </c>
-      <c r="L131">
-        <v>470</v>
+        <v>553</v>
+      </c>
+      <c r="L131" t="s">
+        <v>9</v>
       </c>
       <c r="M131" t="s">
         <v>9</v>
@@ -10850,11 +10850,11 @@
       <c r="F132" t="s">
         <v>9</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132">
+        <v>104</v>
+      </c>
+      <c r="H132" t="s">
         <v>557</v>
-      </c>
-      <c r="H132" t="s">
-        <v>558</v>
       </c>
       <c r="I132" t="s">
         <v>558</v>
@@ -10863,10 +10863,10 @@
         <v>558</v>
       </c>
       <c r="K132" t="s">
+        <v>558</v>
+      </c>
+      <c r="L132" t="s">
         <v>955</v>
-      </c>
-      <c r="L132">
-        <v>104</v>
       </c>
       <c r="M132" t="s">
         <v>9</v>
@@ -10907,8 +10907,8 @@
       <c r="F133" t="s">
         <v>9</v>
       </c>
-      <c r="G133" t="s">
-        <v>561</v>
+      <c r="G133">
+        <v>499</v>
       </c>
       <c r="H133" t="s">
         <v>561</v>
@@ -10920,10 +10920,10 @@
         <v>561</v>
       </c>
       <c r="K133" t="s">
-        <v>9</v>
-      </c>
-      <c r="L133">
-        <v>499</v>
+        <v>561</v>
+      </c>
+      <c r="L133" t="s">
+        <v>9</v>
       </c>
       <c r="M133" t="s">
         <v>9</v>
@@ -10964,8 +10964,8 @@
       <c r="F134" t="s">
         <v>9</v>
       </c>
-      <c r="G134" t="s">
-        <v>565</v>
+      <c r="G134">
+        <v>496</v>
       </c>
       <c r="H134" t="s">
         <v>565</v>
@@ -10977,10 +10977,10 @@
         <v>565</v>
       </c>
       <c r="K134" t="s">
-        <v>9</v>
-      </c>
-      <c r="L134">
-        <v>496</v>
+        <v>565</v>
+      </c>
+      <c r="L134" t="s">
+        <v>9</v>
       </c>
       <c r="M134" t="s">
         <v>9</v>
@@ -11021,11 +11021,11 @@
       <c r="F135" t="s">
         <v>9</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135">
+        <v>508</v>
+      </c>
+      <c r="H135" t="s">
         <v>568</v>
-      </c>
-      <c r="H135" t="s">
-        <v>569</v>
       </c>
       <c r="I135" t="s">
         <v>569</v>
@@ -11034,10 +11034,10 @@
         <v>569</v>
       </c>
       <c r="K135" t="s">
-        <v>9</v>
-      </c>
-      <c r="L135">
-        <v>508</v>
+        <v>569</v>
+      </c>
+      <c r="L135" t="s">
+        <v>9</v>
       </c>
       <c r="M135" t="s">
         <v>9</v>
@@ -11078,11 +11078,11 @@
       <c r="F136" t="s">
         <v>9</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136">
+        <v>478</v>
+      </c>
+      <c r="H136" t="s">
         <v>573</v>
-      </c>
-      <c r="H136" t="s">
-        <v>574</v>
       </c>
       <c r="I136" t="s">
         <v>574</v>
@@ -11091,10 +11091,10 @@
         <v>574</v>
       </c>
       <c r="K136" t="s">
-        <v>9</v>
-      </c>
-      <c r="L136">
-        <v>478</v>
+        <v>574</v>
+      </c>
+      <c r="L136" t="s">
+        <v>9</v>
       </c>
       <c r="M136" t="s">
         <v>9</v>
@@ -11135,8 +11135,8 @@
       <c r="F137" t="s">
         <v>9</v>
       </c>
-      <c r="G137" t="s">
-        <v>9</v>
+      <c r="G137">
+        <v>500</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -11145,13 +11145,13 @@
         <v>9</v>
       </c>
       <c r="J137" t="s">
+        <v>9</v>
+      </c>
+      <c r="K137" t="s">
         <v>926</v>
       </c>
-      <c r="K137" t="s">
-        <v>9</v>
-      </c>
-      <c r="L137">
-        <v>500</v>
+      <c r="L137" t="s">
+        <v>9</v>
       </c>
       <c r="M137" t="s">
         <v>9</v>
@@ -11192,11 +11192,11 @@
       <c r="F138" t="s">
         <v>9</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138">
+        <v>480</v>
+      </c>
+      <c r="H138" t="s">
         <v>578</v>
-      </c>
-      <c r="H138" t="s">
-        <v>579</v>
       </c>
       <c r="I138" t="s">
         <v>579</v>
@@ -11205,10 +11205,10 @@
         <v>579</v>
       </c>
       <c r="K138" t="s">
-        <v>9</v>
-      </c>
-      <c r="L138">
-        <v>480</v>
+        <v>579</v>
+      </c>
+      <c r="L138" t="s">
+        <v>9</v>
       </c>
       <c r="M138" t="s">
         <v>9</v>
@@ -11249,11 +11249,11 @@
       <c r="F139" t="s">
         <v>9</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139">
+        <v>454</v>
+      </c>
+      <c r="H139" t="s">
         <v>583</v>
-      </c>
-      <c r="H139" t="s">
-        <v>584</v>
       </c>
       <c r="I139" t="s">
         <v>584</v>
@@ -11262,10 +11262,10 @@
         <v>584</v>
       </c>
       <c r="K139" t="s">
-        <v>9</v>
-      </c>
-      <c r="L139">
-        <v>454</v>
+        <v>584</v>
+      </c>
+      <c r="L139" t="s">
+        <v>9</v>
       </c>
       <c r="M139" t="s">
         <v>9</v>
@@ -11306,8 +11306,8 @@
       <c r="F140" t="s">
         <v>9</v>
       </c>
-      <c r="G140" t="s">
-        <v>588</v>
+      <c r="G140">
+        <v>458</v>
       </c>
       <c r="H140" t="s">
         <v>588</v>
@@ -11319,10 +11319,10 @@
         <v>588</v>
       </c>
       <c r="K140" t="s">
-        <v>9</v>
-      </c>
-      <c r="L140">
-        <v>458</v>
+        <v>588</v>
+      </c>
+      <c r="L140" t="s">
+        <v>9</v>
       </c>
       <c r="M140" t="s">
         <v>9</v>
@@ -11363,11 +11363,11 @@
       <c r="F141" t="s">
         <v>9</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141">
+        <v>516</v>
+      </c>
+      <c r="H141" t="s">
         <v>591</v>
-      </c>
-      <c r="H141" t="s">
-        <v>592</v>
       </c>
       <c r="I141" t="s">
         <v>592</v>
@@ -11376,10 +11376,10 @@
         <v>592</v>
       </c>
       <c r="K141" t="s">
-        <v>9</v>
-      </c>
-      <c r="L141">
-        <v>516</v>
+        <v>592</v>
+      </c>
+      <c r="L141" t="s">
+        <v>9</v>
       </c>
       <c r="M141" t="s">
         <v>9</v>
@@ -11420,23 +11420,23 @@
       <c r="F142" t="s">
         <v>9</v>
       </c>
-      <c r="G142" t="s">
-        <v>9</v>
+      <c r="G142">
+        <v>540</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
       </c>
       <c r="I142" t="s">
-        <v>594</v>
+        <v>9</v>
       </c>
       <c r="J142" t="s">
         <v>594</v>
       </c>
       <c r="K142" t="s">
-        <v>9</v>
-      </c>
-      <c r="L142">
-        <v>540</v>
+        <v>594</v>
+      </c>
+      <c r="L142" t="s">
+        <v>9</v>
       </c>
       <c r="M142" t="s">
         <v>9</v>
@@ -11477,11 +11477,11 @@
       <c r="F143" t="s">
         <v>9</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143">
+        <v>562</v>
+      </c>
+      <c r="H143" t="s">
         <v>597</v>
-      </c>
-      <c r="H143" t="s">
-        <v>598</v>
       </c>
       <c r="I143" t="s">
         <v>598</v>
@@ -11490,10 +11490,10 @@
         <v>598</v>
       </c>
       <c r="K143" t="s">
-        <v>9</v>
-      </c>
-      <c r="L143">
-        <v>562</v>
+        <v>598</v>
+      </c>
+      <c r="L143" t="s">
+        <v>9</v>
       </c>
       <c r="M143" t="s">
         <v>9</v>
@@ -11534,11 +11534,11 @@
       <c r="F144" t="s">
         <v>9</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144">
+        <v>566</v>
+      </c>
+      <c r="H144" t="s">
         <v>602</v>
-      </c>
-      <c r="H144" t="s">
-        <v>603</v>
       </c>
       <c r="I144" t="s">
         <v>603</v>
@@ -11547,10 +11547,10 @@
         <v>603</v>
       </c>
       <c r="K144" t="s">
-        <v>9</v>
-      </c>
-      <c r="L144">
-        <v>566</v>
+        <v>603</v>
+      </c>
+      <c r="L144" t="s">
+        <v>9</v>
       </c>
       <c r="M144" t="s">
         <v>9</v>
@@ -11591,11 +11591,11 @@
       <c r="F145" t="s">
         <v>9</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145">
+        <v>558</v>
+      </c>
+      <c r="H145" t="s">
         <v>606</v>
-      </c>
-      <c r="H145" t="s">
-        <v>607</v>
       </c>
       <c r="I145" t="s">
         <v>607</v>
@@ -11604,10 +11604,10 @@
         <v>607</v>
       </c>
       <c r="K145" t="s">
-        <v>9</v>
-      </c>
-      <c r="L145">
-        <v>558</v>
+        <v>607</v>
+      </c>
+      <c r="L145" t="s">
+        <v>9</v>
       </c>
       <c r="M145" t="s">
         <v>9</v>
@@ -11648,11 +11648,11 @@
       <c r="F146" t="s">
         <v>9</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146">
+        <v>528</v>
+      </c>
+      <c r="H146" t="s">
         <v>611</v>
-      </c>
-      <c r="H146" t="s">
-        <v>612</v>
       </c>
       <c r="I146" t="s">
         <v>612</v>
@@ -11661,10 +11661,10 @@
         <v>612</v>
       </c>
       <c r="K146" t="s">
-        <v>9</v>
-      </c>
-      <c r="L146">
-        <v>528</v>
+        <v>612</v>
+      </c>
+      <c r="L146" t="s">
+        <v>9</v>
       </c>
       <c r="M146" t="s">
         <v>9</v>
@@ -11705,11 +11705,11 @@
       <c r="F147" t="s">
         <v>9</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147">
+        <v>578</v>
+      </c>
+      <c r="H147" t="s">
         <v>615</v>
-      </c>
-      <c r="H147" t="s">
-        <v>616</v>
       </c>
       <c r="I147" t="s">
         <v>616</v>
@@ -11718,10 +11718,10 @@
         <v>616</v>
       </c>
       <c r="K147" t="s">
-        <v>9</v>
-      </c>
-      <c r="L147">
-        <v>578</v>
+        <v>616</v>
+      </c>
+      <c r="L147" t="s">
+        <v>9</v>
       </c>
       <c r="M147" t="s">
         <v>9</v>
@@ -11762,11 +11762,11 @@
       <c r="F148" t="s">
         <v>9</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148">
+        <v>524</v>
+      </c>
+      <c r="H148" t="s">
         <v>620</v>
-      </c>
-      <c r="H148" t="s">
-        <v>621</v>
       </c>
       <c r="I148" t="s">
         <v>621</v>
@@ -11775,10 +11775,10 @@
         <v>621</v>
       </c>
       <c r="K148" t="s">
-        <v>9</v>
-      </c>
-      <c r="L148">
-        <v>524</v>
+        <v>621</v>
+      </c>
+      <c r="L148" t="s">
+        <v>9</v>
       </c>
       <c r="M148" t="s">
         <v>9</v>
@@ -11819,23 +11819,23 @@
       <c r="F149" t="s">
         <v>9</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149">
+        <v>520</v>
+      </c>
+      <c r="H149" t="s">
         <v>625</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>626</v>
       </c>
-      <c r="I149" t="s">
-        <v>9</v>
-      </c>
       <c r="J149" t="s">
+        <v>9</v>
+      </c>
+      <c r="K149" t="s">
         <v>626</v>
       </c>
-      <c r="K149" t="s">
-        <v>9</v>
-      </c>
-      <c r="L149">
-        <v>520</v>
+      <c r="L149" t="s">
+        <v>9</v>
       </c>
       <c r="M149" t="s">
         <v>9</v>
@@ -11876,8 +11876,8 @@
       <c r="F150" t="s">
         <v>9</v>
       </c>
-      <c r="G150" t="s">
-        <v>630</v>
+      <c r="G150">
+        <v>554</v>
       </c>
       <c r="H150" t="s">
         <v>630</v>
@@ -11889,10 +11889,10 @@
         <v>630</v>
       </c>
       <c r="K150" t="s">
-        <v>9</v>
-      </c>
-      <c r="L150">
-        <v>554</v>
+        <v>630</v>
+      </c>
+      <c r="L150" t="s">
+        <v>9</v>
       </c>
       <c r="M150" t="s">
         <v>9</v>
@@ -11933,11 +11933,11 @@
       <c r="F151" t="s">
         <v>9</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151">
+        <v>512</v>
+      </c>
+      <c r="H151" t="s">
         <v>634</v>
-      </c>
-      <c r="H151" t="s">
-        <v>635</v>
       </c>
       <c r="I151" t="s">
         <v>635</v>
@@ -11946,10 +11946,10 @@
         <v>635</v>
       </c>
       <c r="K151" t="s">
-        <v>9</v>
-      </c>
-      <c r="L151">
-        <v>512</v>
+        <v>635</v>
+      </c>
+      <c r="L151" t="s">
+        <v>9</v>
       </c>
       <c r="M151" t="s">
         <v>9</v>
@@ -11990,11 +11990,11 @@
       <c r="F152" t="s">
         <v>9</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152">
+        <v>586</v>
+      </c>
+      <c r="H152" t="s">
         <v>638</v>
-      </c>
-      <c r="H152" t="s">
-        <v>639</v>
       </c>
       <c r="I152" t="s">
         <v>639</v>
@@ -12003,10 +12003,10 @@
         <v>639</v>
       </c>
       <c r="K152" t="s">
-        <v>9</v>
-      </c>
-      <c r="L152">
-        <v>586</v>
+        <v>639</v>
+      </c>
+      <c r="L152" t="s">
+        <v>9</v>
       </c>
       <c r="M152" t="s">
         <v>9</v>
@@ -12047,11 +12047,11 @@
       <c r="F153" t="s">
         <v>9</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153">
+        <v>591</v>
+      </c>
+      <c r="H153" t="s">
         <v>642</v>
-      </c>
-      <c r="H153" t="s">
-        <v>643</v>
       </c>
       <c r="I153" t="s">
         <v>643</v>
@@ -12060,10 +12060,10 @@
         <v>643</v>
       </c>
       <c r="K153" t="s">
-        <v>9</v>
-      </c>
-      <c r="L153">
-        <v>591</v>
+        <v>643</v>
+      </c>
+      <c r="L153" t="s">
+        <v>9</v>
       </c>
       <c r="M153" t="s">
         <v>9</v>
@@ -12104,11 +12104,11 @@
       <c r="F154" t="s">
         <v>9</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154">
+        <v>604</v>
+      </c>
+      <c r="H154" t="s">
         <v>646</v>
-      </c>
-      <c r="H154" t="s">
-        <v>647</v>
       </c>
       <c r="I154" t="s">
         <v>647</v>
@@ -12117,10 +12117,10 @@
         <v>647</v>
       </c>
       <c r="K154" t="s">
-        <v>9</v>
-      </c>
-      <c r="L154">
-        <v>604</v>
+        <v>647</v>
+      </c>
+      <c r="L154" t="s">
+        <v>9</v>
       </c>
       <c r="M154" t="s">
         <v>9</v>
@@ -12161,11 +12161,11 @@
       <c r="F155" t="s">
         <v>9</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155">
+        <v>608</v>
+      </c>
+      <c r="H155" t="s">
         <v>651</v>
-      </c>
-      <c r="H155" t="s">
-        <v>652</v>
       </c>
       <c r="I155" t="s">
         <v>652</v>
@@ -12174,10 +12174,10 @@
         <v>652</v>
       </c>
       <c r="K155" t="s">
-        <v>9</v>
-      </c>
-      <c r="L155">
-        <v>608</v>
+        <v>652</v>
+      </c>
+      <c r="L155" t="s">
+        <v>9</v>
       </c>
       <c r="M155" t="s">
         <v>9</v>
@@ -12218,23 +12218,23 @@
       <c r="F156" t="s">
         <v>9</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156">
+        <v>585</v>
+      </c>
+      <c r="H156" t="s">
         <v>656</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>657</v>
       </c>
-      <c r="I156" t="s">
-        <v>9</v>
-      </c>
       <c r="J156" t="s">
+        <v>9</v>
+      </c>
+      <c r="K156" t="s">
         <v>657</v>
       </c>
-      <c r="K156" t="s">
-        <v>9</v>
-      </c>
-      <c r="L156">
-        <v>585</v>
+      <c r="L156" t="s">
+        <v>9</v>
       </c>
       <c r="M156" t="s">
         <v>9</v>
@@ -12275,11 +12275,11 @@
       <c r="F157" t="s">
         <v>9</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157">
+        <v>598</v>
+      </c>
+      <c r="H157" t="s">
         <v>660</v>
-      </c>
-      <c r="H157" t="s">
-        <v>661</v>
       </c>
       <c r="I157" t="s">
         <v>661</v>
@@ -12288,10 +12288,10 @@
         <v>661</v>
       </c>
       <c r="K157" t="s">
-        <v>9</v>
-      </c>
-      <c r="L157">
-        <v>598</v>
+        <v>661</v>
+      </c>
+      <c r="L157" t="s">
+        <v>9</v>
       </c>
       <c r="M157" t="s">
         <v>9</v>
@@ -12332,11 +12332,11 @@
       <c r="F158" t="s">
         <v>9</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158">
+        <v>616</v>
+      </c>
+      <c r="H158" t="s">
         <v>664</v>
-      </c>
-      <c r="H158" t="s">
-        <v>665</v>
       </c>
       <c r="I158" t="s">
         <v>665</v>
@@ -12345,10 +12345,10 @@
         <v>665</v>
       </c>
       <c r="K158" t="s">
-        <v>9</v>
-      </c>
-      <c r="L158">
-        <v>616</v>
+        <v>665</v>
+      </c>
+      <c r="L158" t="s">
+        <v>9</v>
       </c>
       <c r="M158" t="s">
         <v>9</v>
@@ -12389,8 +12389,8 @@
       <c r="F159" t="s">
         <v>9</v>
       </c>
-      <c r="G159" t="s">
-        <v>9</v>
+      <c r="G159">
+        <v>630</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -12399,13 +12399,13 @@
         <v>9</v>
       </c>
       <c r="J159" t="s">
+        <v>9</v>
+      </c>
+      <c r="K159" t="s">
         <v>928</v>
       </c>
-      <c r="K159" t="s">
-        <v>9</v>
-      </c>
-      <c r="L159">
-        <v>630</v>
+      <c r="L159" t="s">
+        <v>9</v>
       </c>
       <c r="M159" t="s">
         <v>9</v>
@@ -12446,23 +12446,23 @@
       <c r="F160" t="s">
         <v>9</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160">
+        <v>408</v>
+      </c>
+      <c r="H160" t="s">
         <v>670</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>671</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>672</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>671</v>
       </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>952</v>
-      </c>
-      <c r="L160">
-        <v>408</v>
       </c>
       <c r="M160" t="s">
         <v>970</v>
@@ -12503,11 +12503,11 @@
       <c r="F161" t="s">
         <v>9</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161">
+        <v>620</v>
+      </c>
+      <c r="H161" t="s">
         <v>676</v>
-      </c>
-      <c r="H161" t="s">
-        <v>677</v>
       </c>
       <c r="I161" t="s">
         <v>677</v>
@@ -12516,10 +12516,10 @@
         <v>677</v>
       </c>
       <c r="K161" t="s">
-        <v>9</v>
-      </c>
-      <c r="L161">
-        <v>620</v>
+        <v>677</v>
+      </c>
+      <c r="L161" t="s">
+        <v>9</v>
       </c>
       <c r="M161" t="s">
         <v>9</v>
@@ -12560,11 +12560,11 @@
       <c r="F162" t="s">
         <v>9</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162">
+        <v>600</v>
+      </c>
+      <c r="H162" t="s">
         <v>681</v>
-      </c>
-      <c r="H162" t="s">
-        <v>682</v>
       </c>
       <c r="I162" t="s">
         <v>682</v>
@@ -12573,10 +12573,10 @@
         <v>682</v>
       </c>
       <c r="K162" t="s">
-        <v>9</v>
-      </c>
-      <c r="L162">
-        <v>600</v>
+        <v>682</v>
+      </c>
+      <c r="L162" t="s">
+        <v>9</v>
       </c>
       <c r="M162" t="s">
         <v>9</v>
@@ -12617,23 +12617,23 @@
       <c r="F163" t="s">
         <v>9</v>
       </c>
-      <c r="G163" t="s">
-        <v>9</v>
+      <c r="G163">
+        <v>275</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
       </c>
       <c r="I163" t="s">
+        <v>9</v>
+      </c>
+      <c r="J163" t="s">
         <v>684</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
         <v>919</v>
       </c>
-      <c r="K163" t="s">
-        <v>9</v>
-      </c>
-      <c r="L163">
-        <v>275</v>
+      <c r="L163" t="s">
+        <v>9</v>
       </c>
       <c r="M163" t="s">
         <v>972</v>
@@ -12674,23 +12674,23 @@
       <c r="F164" t="s">
         <v>9</v>
       </c>
-      <c r="G164" t="s">
-        <v>9</v>
+      <c r="G164">
+        <v>258</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>686</v>
+        <v>9</v>
       </c>
       <c r="J164" t="s">
         <v>686</v>
       </c>
       <c r="K164" t="s">
-        <v>9</v>
-      </c>
-      <c r="L164">
-        <v>258</v>
+        <v>686</v>
+      </c>
+      <c r="L164" t="s">
+        <v>9</v>
       </c>
       <c r="M164" t="s">
         <v>9</v>
@@ -12731,11 +12731,11 @@
       <c r="F165" t="s">
         <v>9</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165">
+        <v>634</v>
+      </c>
+      <c r="H165" t="s">
         <v>689</v>
-      </c>
-      <c r="H165" t="s">
-        <v>690</v>
       </c>
       <c r="I165" t="s">
         <v>690</v>
@@ -12744,10 +12744,10 @@
         <v>690</v>
       </c>
       <c r="K165" t="s">
-        <v>9</v>
-      </c>
-      <c r="L165">
-        <v>634</v>
+        <v>690</v>
+      </c>
+      <c r="L165" t="s">
+        <v>9</v>
       </c>
       <c r="M165" t="s">
         <v>9</v>
@@ -12788,8 +12788,8 @@
       <c r="F166" t="s">
         <v>9</v>
       </c>
-      <c r="G166" t="s">
-        <v>694</v>
+      <c r="G166">
+        <v>642</v>
       </c>
       <c r="H166" t="s">
         <v>694</v>
@@ -12801,10 +12801,10 @@
         <v>694</v>
       </c>
       <c r="K166" t="s">
-        <v>9</v>
-      </c>
-      <c r="L166">
-        <v>642</v>
+        <v>694</v>
+      </c>
+      <c r="L166" t="s">
+        <v>9</v>
       </c>
       <c r="M166" t="s">
         <v>9</v>
@@ -12845,23 +12845,23 @@
       <c r="F167" t="s">
         <v>9</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167">
+        <v>643</v>
+      </c>
+      <c r="H167" t="s">
         <v>697</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>698</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>699</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>698</v>
       </c>
-      <c r="K167" t="s">
-        <v>9</v>
-      </c>
-      <c r="L167">
-        <v>643</v>
+      <c r="L167" t="s">
+        <v>9</v>
       </c>
       <c r="M167" t="s">
         <v>9</v>
@@ -12902,11 +12902,11 @@
       <c r="F168" t="s">
         <v>9</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168">
+        <v>646</v>
+      </c>
+      <c r="H168" t="s">
         <v>702</v>
-      </c>
-      <c r="H168" t="s">
-        <v>703</v>
       </c>
       <c r="I168" t="s">
         <v>703</v>
@@ -12915,10 +12915,10 @@
         <v>703</v>
       </c>
       <c r="K168" t="s">
-        <v>9</v>
-      </c>
-      <c r="L168">
-        <v>646</v>
+        <v>703</v>
+      </c>
+      <c r="L168" t="s">
+        <v>9</v>
       </c>
       <c r="M168" t="s">
         <v>9</v>
@@ -12959,11 +12959,11 @@
       <c r="F169" t="s">
         <v>9</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169">
+        <v>682</v>
+      </c>
+      <c r="H169" t="s">
         <v>706</v>
-      </c>
-      <c r="H169" t="s">
-        <v>707</v>
       </c>
       <c r="I169" t="s">
         <v>707</v>
@@ -12972,10 +12972,10 @@
         <v>707</v>
       </c>
       <c r="K169" t="s">
-        <v>9</v>
-      </c>
-      <c r="L169">
-        <v>682</v>
+        <v>707</v>
+      </c>
+      <c r="L169" t="s">
+        <v>9</v>
       </c>
       <c r="M169" t="s">
         <v>9</v>
@@ -13016,23 +13016,23 @@
       <c r="F170" t="s">
         <v>9</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170">
+        <v>729</v>
+      </c>
+      <c r="H170" t="s">
         <v>711</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>712</v>
       </c>
-      <c r="I170" t="s">
-        <v>9</v>
-      </c>
       <c r="J170" t="s">
+        <v>9</v>
+      </c>
+      <c r="K170" t="s">
         <v>712</v>
       </c>
-      <c r="K170" t="s">
-        <v>9</v>
-      </c>
-      <c r="L170">
-        <v>729</v>
+      <c r="L170" t="s">
+        <v>9</v>
       </c>
       <c r="M170" t="s">
         <v>9</v>
@@ -13073,23 +13073,23 @@
       <c r="F171" t="s">
         <v>9</v>
       </c>
-      <c r="G171" t="s">
-        <v>9</v>
+      <c r="G171">
+        <v>728</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
       </c>
       <c r="I171" t="s">
-        <v>714</v>
+        <v>9</v>
       </c>
       <c r="J171" t="s">
         <v>714</v>
       </c>
       <c r="K171" t="s">
-        <v>9</v>
-      </c>
-      <c r="L171">
-        <v>728</v>
+        <v>714</v>
+      </c>
+      <c r="L171" t="s">
+        <v>9</v>
       </c>
       <c r="M171" t="s">
         <v>9</v>
@@ -13130,11 +13130,11 @@
       <c r="F172" t="s">
         <v>9</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172">
+        <v>686</v>
+      </c>
+      <c r="H172" t="s">
         <v>717</v>
-      </c>
-      <c r="H172" t="s">
-        <v>718</v>
       </c>
       <c r="I172" t="s">
         <v>718</v>
@@ -13143,10 +13143,10 @@
         <v>718</v>
       </c>
       <c r="K172" t="s">
-        <v>9</v>
-      </c>
-      <c r="L172">
-        <v>686</v>
+        <v>718</v>
+      </c>
+      <c r="L172" t="s">
+        <v>9</v>
       </c>
       <c r="M172" t="s">
         <v>9</v>
@@ -13187,11 +13187,11 @@
       <c r="F173" t="s">
         <v>9</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173">
+        <v>702</v>
+      </c>
+      <c r="H173" t="s">
         <v>722</v>
-      </c>
-      <c r="H173" t="s">
-        <v>723</v>
       </c>
       <c r="I173" t="s">
         <v>723</v>
@@ -13200,10 +13200,10 @@
         <v>723</v>
       </c>
       <c r="K173" t="s">
-        <v>9</v>
-      </c>
-      <c r="L173">
-        <v>702</v>
+        <v>723</v>
+      </c>
+      <c r="L173" t="s">
+        <v>9</v>
       </c>
       <c r="M173" t="s">
         <v>9</v>
@@ -13244,23 +13244,23 @@
       <c r="F174" t="s">
         <v>9</v>
       </c>
-      <c r="G174" t="s">
-        <v>727</v>
+      <c r="G174">
+        <v>90</v>
       </c>
       <c r="H174" t="s">
         <v>727</v>
       </c>
       <c r="I174" t="s">
-        <v>9</v>
+        <v>727</v>
       </c>
       <c r="J174" t="s">
+        <v>9</v>
+      </c>
+      <c r="K174" t="s">
         <v>727</v>
       </c>
-      <c r="K174" t="s">
-        <v>9</v>
-      </c>
-      <c r="L174">
-        <v>90</v>
+      <c r="L174" t="s">
+        <v>9</v>
       </c>
       <c r="M174" t="s">
         <v>9</v>
@@ -13301,11 +13301,11 @@
       <c r="F175" t="s">
         <v>9</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175">
+        <v>694</v>
+      </c>
+      <c r="H175" t="s">
         <v>731</v>
-      </c>
-      <c r="H175" t="s">
-        <v>732</v>
       </c>
       <c r="I175" t="s">
         <v>732</v>
@@ -13314,10 +13314,10 @@
         <v>732</v>
       </c>
       <c r="K175" t="s">
-        <v>9</v>
-      </c>
-      <c r="L175">
-        <v>694</v>
+        <v>732</v>
+      </c>
+      <c r="L175" t="s">
+        <v>9</v>
       </c>
       <c r="M175" t="s">
         <v>9</v>
@@ -13358,11 +13358,11 @@
       <c r="F176" t="s">
         <v>9</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176">
+        <v>222</v>
+      </c>
+      <c r="H176" t="s">
         <v>736</v>
-      </c>
-      <c r="H176" t="s">
-        <v>737</v>
       </c>
       <c r="I176" t="s">
         <v>737</v>
@@ -13371,10 +13371,10 @@
         <v>737</v>
       </c>
       <c r="K176" t="s">
-        <v>9</v>
-      </c>
-      <c r="L176">
-        <v>222</v>
+        <v>737</v>
+      </c>
+      <c r="L176" t="s">
+        <v>9</v>
       </c>
       <c r="M176" t="s">
         <v>9</v>
@@ -13415,11 +13415,11 @@
       <c r="F177" t="s">
         <v>9</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177">
+        <v>674</v>
+      </c>
+      <c r="H177" t="s">
         <v>741</v>
-      </c>
-      <c r="H177" t="s">
-        <v>742</v>
       </c>
       <c r="I177" t="s">
         <v>742</v>
@@ -13428,10 +13428,10 @@
         <v>742</v>
       </c>
       <c r="K177" t="s">
-        <v>9</v>
-      </c>
-      <c r="L177">
-        <v>674</v>
+        <v>742</v>
+      </c>
+      <c r="L177" t="s">
+        <v>9</v>
       </c>
       <c r="M177" t="s">
         <v>9</v>
@@ -13472,11 +13472,11 @@
       <c r="F178" t="s">
         <v>9</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178">
+        <v>706</v>
+      </c>
+      <c r="H178" t="s">
         <v>745</v>
-      </c>
-      <c r="H178" t="s">
-        <v>746</v>
       </c>
       <c r="I178" t="s">
         <v>746</v>
@@ -13485,10 +13485,10 @@
         <v>746</v>
       </c>
       <c r="K178" t="s">
-        <v>9</v>
-      </c>
-      <c r="L178">
-        <v>706</v>
+        <v>746</v>
+      </c>
+      <c r="L178" t="s">
+        <v>9</v>
       </c>
       <c r="M178" t="s">
         <v>9</v>
@@ -13529,11 +13529,11 @@
       <c r="F179" t="s">
         <v>9</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179">
+        <v>688</v>
+      </c>
+      <c r="H179" t="s">
         <v>749</v>
-      </c>
-      <c r="H179" t="s">
-        <v>750</v>
       </c>
       <c r="I179" t="s">
         <v>750</v>
@@ -13542,10 +13542,10 @@
         <v>750</v>
       </c>
       <c r="K179" t="s">
-        <v>9</v>
-      </c>
-      <c r="L179">
-        <v>688</v>
+        <v>750</v>
+      </c>
+      <c r="L179" t="s">
+        <v>9</v>
       </c>
       <c r="M179" t="s">
         <v>9</v>
@@ -13586,11 +13586,11 @@
       <c r="F180" t="s">
         <v>9</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180">
+        <v>678</v>
+      </c>
+      <c r="H180" t="s">
         <v>753</v>
-      </c>
-      <c r="H180" t="s">
-        <v>754</v>
       </c>
       <c r="I180" t="s">
         <v>754</v>
@@ -13599,10 +13599,10 @@
         <v>754</v>
       </c>
       <c r="K180" t="s">
-        <v>9</v>
-      </c>
-      <c r="L180">
-        <v>678</v>
+        <v>754</v>
+      </c>
+      <c r="L180" t="s">
+        <v>9</v>
       </c>
       <c r="M180" t="s">
         <v>9</v>
@@ -13643,23 +13643,23 @@
       <c r="F181" t="s">
         <v>9</v>
       </c>
-      <c r="G181" t="s">
-        <v>9</v>
+      <c r="G181">
+        <v>736</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
       </c>
       <c r="I181" t="s">
-        <v>712</v>
+        <v>9</v>
       </c>
       <c r="J181" t="s">
         <v>712</v>
       </c>
       <c r="K181" t="s">
+        <v>712</v>
+      </c>
+      <c r="L181" t="s">
         <v>948</v>
-      </c>
-      <c r="L181">
-        <v>736</v>
       </c>
       <c r="M181" t="s">
         <v>9</v>
@@ -13700,11 +13700,11 @@
       <c r="F182" t="s">
         <v>9</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182">
+        <v>740</v>
+      </c>
+      <c r="H182" t="s">
         <v>757</v>
-      </c>
-      <c r="H182" t="s">
-        <v>758</v>
       </c>
       <c r="I182" t="s">
         <v>758</v>
@@ -13713,10 +13713,10 @@
         <v>758</v>
       </c>
       <c r="K182" t="s">
-        <v>9</v>
-      </c>
-      <c r="L182">
-        <v>740</v>
+        <v>758</v>
+      </c>
+      <c r="L182" t="s">
+        <v>9</v>
       </c>
       <c r="M182" t="s">
         <v>9</v>
@@ -13757,11 +13757,11 @@
       <c r="F183" t="s">
         <v>9</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183">
+        <v>703</v>
+      </c>
+      <c r="H183" t="s">
         <v>762</v>
-      </c>
-      <c r="H183" t="s">
-        <v>763</v>
       </c>
       <c r="I183" t="s">
         <v>763</v>
@@ -13770,10 +13770,10 @@
         <v>763</v>
       </c>
       <c r="K183" t="s">
+        <v>763</v>
+      </c>
+      <c r="L183" t="s">
         <v>965</v>
-      </c>
-      <c r="L183">
-        <v>703</v>
       </c>
       <c r="M183" t="s">
         <v>9</v>
@@ -13814,11 +13814,11 @@
       <c r="F184" t="s">
         <v>9</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184">
+        <v>705</v>
+      </c>
+      <c r="H184" t="s">
         <v>766</v>
-      </c>
-      <c r="H184" t="s">
-        <v>767</v>
       </c>
       <c r="I184" t="s">
         <v>767</v>
@@ -13827,10 +13827,10 @@
         <v>767</v>
       </c>
       <c r="K184" t="s">
-        <v>9</v>
-      </c>
-      <c r="L184">
-        <v>705</v>
+        <v>767</v>
+      </c>
+      <c r="L184" t="s">
+        <v>9</v>
       </c>
       <c r="M184" t="s">
         <v>9</v>
@@ -13871,11 +13871,11 @@
       <c r="F185" t="s">
         <v>9</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185">
+        <v>752</v>
+      </c>
+      <c r="H185" t="s">
         <v>770</v>
-      </c>
-      <c r="H185" t="s">
-        <v>771</v>
       </c>
       <c r="I185" t="s">
         <v>771</v>
@@ -13884,10 +13884,10 @@
         <v>771</v>
       </c>
       <c r="K185" t="s">
-        <v>9</v>
-      </c>
-      <c r="L185">
-        <v>752</v>
+        <v>771</v>
+      </c>
+      <c r="L185" t="s">
+        <v>9</v>
       </c>
       <c r="M185" t="s">
         <v>9</v>
@@ -13928,11 +13928,11 @@
       <c r="F186" t="s">
         <v>9</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186">
+        <v>748</v>
+      </c>
+      <c r="H186" t="s">
         <v>775</v>
-      </c>
-      <c r="H186" t="s">
-        <v>776</v>
       </c>
       <c r="I186" t="s">
         <v>776</v>
@@ -13941,10 +13941,10 @@
         <v>776</v>
       </c>
       <c r="K186" t="s">
-        <v>9</v>
-      </c>
-      <c r="L186">
-        <v>748</v>
+        <v>776</v>
+      </c>
+      <c r="L186" t="s">
+        <v>9</v>
       </c>
       <c r="M186" t="s">
         <v>9</v>
@@ -13985,23 +13985,23 @@
       <c r="F187" t="s">
         <v>9</v>
       </c>
-      <c r="G187" t="s">
-        <v>9</v>
+      <c r="G187">
+        <v>534</v>
       </c>
       <c r="H187" t="s">
+        <v>9</v>
+      </c>
+      <c r="I187" t="s">
         <v>976</v>
       </c>
-      <c r="I187" t="s">
-        <v>9</v>
-      </c>
       <c r="J187" t="s">
+        <v>9</v>
+      </c>
+      <c r="K187" t="s">
         <v>938</v>
       </c>
-      <c r="K187" t="s">
-        <v>9</v>
-      </c>
-      <c r="L187">
-        <v>534</v>
+      <c r="L187" t="s">
+        <v>9</v>
       </c>
       <c r="M187" t="s">
         <v>9</v>
@@ -14042,11 +14042,11 @@
       <c r="F188" t="s">
         <v>9</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188">
+        <v>690</v>
+      </c>
+      <c r="H188" t="s">
         <v>781</v>
-      </c>
-      <c r="H188" t="s">
-        <v>782</v>
       </c>
       <c r="I188" t="s">
         <v>782</v>
@@ -14055,10 +14055,10 @@
         <v>782</v>
       </c>
       <c r="K188" t="s">
-        <v>9</v>
-      </c>
-      <c r="L188">
-        <v>690</v>
+        <v>782</v>
+      </c>
+      <c r="L188" t="s">
+        <v>9</v>
       </c>
       <c r="M188" t="s">
         <v>9</v>
@@ -14099,23 +14099,23 @@
       <c r="F189" t="s">
         <v>9</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189">
+        <v>760</v>
+      </c>
+      <c r="H189" t="s">
         <v>785</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>786</v>
       </c>
-      <c r="I189" t="s">
+      <c r="J189" t="s">
         <v>787</v>
       </c>
-      <c r="J189" t="s">
+      <c r="K189" t="s">
         <v>786</v>
       </c>
-      <c r="K189" t="s">
-        <v>9</v>
-      </c>
-      <c r="L189">
-        <v>760</v>
+      <c r="L189" t="s">
+        <v>9</v>
       </c>
       <c r="M189" t="s">
         <v>9</v>
@@ -14156,8 +14156,8 @@
       <c r="F190" t="s">
         <v>9</v>
       </c>
-      <c r="G190" t="s">
-        <v>9</v>
+      <c r="G190">
+        <v>796</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -14166,13 +14166,13 @@
         <v>9</v>
       </c>
       <c r="J190" t="s">
+        <v>9</v>
+      </c>
+      <c r="K190" t="s">
         <v>931</v>
       </c>
-      <c r="K190" t="s">
-        <v>9</v>
-      </c>
-      <c r="L190">
-        <v>796</v>
+      <c r="L190" t="s">
+        <v>9</v>
       </c>
       <c r="M190" t="s">
         <v>9</v>
@@ -14213,11 +14213,11 @@
       <c r="F191" t="s">
         <v>9</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191">
+        <v>148</v>
+      </c>
+      <c r="H191" t="s">
         <v>792</v>
-      </c>
-      <c r="H191" t="s">
-        <v>793</v>
       </c>
       <c r="I191" t="s">
         <v>793</v>
@@ -14226,10 +14226,10 @@
         <v>793</v>
       </c>
       <c r="K191" t="s">
-        <v>9</v>
-      </c>
-      <c r="L191">
-        <v>148</v>
+        <v>793</v>
+      </c>
+      <c r="L191" t="s">
+        <v>9</v>
       </c>
       <c r="M191" t="s">
         <v>9</v>
@@ -14270,11 +14270,11 @@
       <c r="F192" t="s">
         <v>9</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192">
+        <v>768</v>
+      </c>
+      <c r="H192" t="s">
         <v>797</v>
-      </c>
-      <c r="H192" t="s">
-        <v>798</v>
       </c>
       <c r="I192" t="s">
         <v>798</v>
@@ -14283,10 +14283,10 @@
         <v>798</v>
       </c>
       <c r="K192" t="s">
-        <v>9</v>
-      </c>
-      <c r="L192">
-        <v>768</v>
+        <v>798</v>
+      </c>
+      <c r="L192" t="s">
+        <v>9</v>
       </c>
       <c r="M192" t="s">
         <v>9</v>
@@ -14327,11 +14327,11 @@
       <c r="F193" t="s">
         <v>9</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193">
+        <v>764</v>
+      </c>
+      <c r="H193" t="s">
         <v>801</v>
-      </c>
-      <c r="H193" t="s">
-        <v>802</v>
       </c>
       <c r="I193" t="s">
         <v>802</v>
@@ -14340,10 +14340,10 @@
         <v>802</v>
       </c>
       <c r="K193" t="s">
-        <v>9</v>
-      </c>
-      <c r="L193">
-        <v>764</v>
+        <v>802</v>
+      </c>
+      <c r="L193" t="s">
+        <v>9</v>
       </c>
       <c r="M193" t="s">
         <v>9</v>
@@ -14384,11 +14384,11 @@
       <c r="F194" t="s">
         <v>9</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194">
+        <v>762</v>
+      </c>
+      <c r="H194" t="s">
         <v>806</v>
-      </c>
-      <c r="H194" t="s">
-        <v>807</v>
       </c>
       <c r="I194" t="s">
         <v>807</v>
@@ -14397,10 +14397,10 @@
         <v>807</v>
       </c>
       <c r="K194" t="s">
-        <v>9</v>
-      </c>
-      <c r="L194">
-        <v>762</v>
+        <v>807</v>
+      </c>
+      <c r="L194" t="s">
+        <v>9</v>
       </c>
       <c r="M194" t="s">
         <v>9</v>
@@ -14441,8 +14441,8 @@
       <c r="F195" t="s">
         <v>9</v>
       </c>
-      <c r="G195" t="s">
-        <v>811</v>
+      <c r="G195">
+        <v>795</v>
       </c>
       <c r="H195" t="s">
         <v>811</v>
@@ -14454,10 +14454,10 @@
         <v>811</v>
       </c>
       <c r="K195" t="s">
-        <v>9</v>
-      </c>
-      <c r="L195">
-        <v>795</v>
+        <v>811</v>
+      </c>
+      <c r="L195" t="s">
+        <v>9</v>
       </c>
       <c r="M195" t="s">
         <v>9</v>
@@ -14498,23 +14498,23 @@
       <c r="F196" t="s">
         <v>9</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196">
+        <v>626</v>
+      </c>
+      <c r="H196" t="s">
         <v>815</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>816</v>
       </c>
-      <c r="I196" t="s">
-        <v>9</v>
-      </c>
       <c r="J196" t="s">
+        <v>9</v>
+      </c>
+      <c r="K196" t="s">
         <v>816</v>
       </c>
-      <c r="K196" t="s">
-        <v>9</v>
-      </c>
-      <c r="L196">
-        <v>626</v>
+      <c r="L196" t="s">
+        <v>9</v>
       </c>
       <c r="M196" t="s">
         <v>9</v>
@@ -14555,23 +14555,23 @@
       <c r="F197" t="s">
         <v>9</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197">
+        <v>776</v>
+      </c>
+      <c r="H197" t="s">
         <v>819</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>820</v>
       </c>
-      <c r="I197" t="s">
-        <v>9</v>
-      </c>
       <c r="J197" t="s">
+        <v>9</v>
+      </c>
+      <c r="K197" t="s">
         <v>820</v>
       </c>
-      <c r="K197" t="s">
-        <v>9</v>
-      </c>
-      <c r="L197">
-        <v>776</v>
+      <c r="L197" t="s">
+        <v>9</v>
       </c>
       <c r="M197" t="s">
         <v>9</v>
@@ -14612,11 +14612,11 @@
       <c r="F198" t="s">
         <v>9</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198">
+        <v>780</v>
+      </c>
+      <c r="H198" t="s">
         <v>824</v>
-      </c>
-      <c r="H198" t="s">
-        <v>825</v>
       </c>
       <c r="I198" t="s">
         <v>825</v>
@@ -14625,10 +14625,10 @@
         <v>825</v>
       </c>
       <c r="K198" t="s">
-        <v>9</v>
-      </c>
-      <c r="L198">
-        <v>780</v>
+        <v>825</v>
+      </c>
+      <c r="L198" t="s">
+        <v>9</v>
       </c>
       <c r="M198" t="s">
         <v>9</v>
@@ -14669,11 +14669,11 @@
       <c r="F199" t="s">
         <v>9</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199">
+        <v>788</v>
+      </c>
+      <c r="H199" t="s">
         <v>828</v>
-      </c>
-      <c r="H199" t="s">
-        <v>829</v>
       </c>
       <c r="I199" t="s">
         <v>829</v>
@@ -14682,10 +14682,10 @@
         <v>829</v>
       </c>
       <c r="K199" t="s">
-        <v>9</v>
-      </c>
-      <c r="L199">
-        <v>788</v>
+        <v>829</v>
+      </c>
+      <c r="L199" t="s">
+        <v>9</v>
       </c>
       <c r="M199" t="s">
         <v>9</v>
@@ -14726,11 +14726,11 @@
       <c r="F200" t="s">
         <v>9</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200">
+        <v>792</v>
+      </c>
+      <c r="H200" t="s">
         <v>832</v>
-      </c>
-      <c r="H200" t="s">
-        <v>833</v>
       </c>
       <c r="I200" t="s">
         <v>833</v>
@@ -14739,10 +14739,10 @@
         <v>833</v>
       </c>
       <c r="K200" t="s">
-        <v>9</v>
-      </c>
-      <c r="L200">
-        <v>792</v>
+        <v>833</v>
+      </c>
+      <c r="L200" t="s">
+        <v>9</v>
       </c>
       <c r="M200" t="s">
         <v>9</v>
@@ -14783,23 +14783,23 @@
       <c r="F201" t="s">
         <v>9</v>
       </c>
-      <c r="G201" t="s">
-        <v>836</v>
+      <c r="G201">
+        <v>798</v>
       </c>
       <c r="H201" t="s">
         <v>836</v>
       </c>
       <c r="I201" t="s">
-        <v>9</v>
+        <v>836</v>
       </c>
       <c r="J201" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" t="s">
         <v>836</v>
       </c>
-      <c r="K201" t="s">
-        <v>9</v>
-      </c>
-      <c r="L201">
-        <v>798</v>
+      <c r="L201" t="s">
+        <v>9</v>
       </c>
       <c r="M201" t="s">
         <v>9</v>
@@ -14840,23 +14840,23 @@
       <c r="F202" t="s">
         <v>9</v>
       </c>
-      <c r="G202" t="s">
-        <v>9</v>
+      <c r="G202">
+        <v>761</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>838</v>
+        <v>9</v>
       </c>
       <c r="J202" t="s">
         <v>838</v>
       </c>
       <c r="K202" t="s">
-        <v>9</v>
-      </c>
-      <c r="L202">
-        <v>761</v>
+        <v>838</v>
+      </c>
+      <c r="L202" t="s">
+        <v>9</v>
       </c>
       <c r="M202" t="s">
         <v>9</v>
@@ -14897,23 +14897,23 @@
       <c r="F203" t="s">
         <v>9</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203">
+        <v>835</v>
+      </c>
+      <c r="H203" t="s">
         <v>842</v>
       </c>
-      <c r="H203" t="s">
+      <c r="I203" t="s">
         <v>843</v>
       </c>
-      <c r="I203" t="s">
+      <c r="J203" t="s">
         <v>844</v>
       </c>
-      <c r="J203" t="s">
+      <c r="K203" t="s">
         <v>843</v>
       </c>
-      <c r="K203" t="s">
-        <v>9</v>
-      </c>
-      <c r="L203">
-        <v>835</v>
+      <c r="L203" t="s">
+        <v>9</v>
       </c>
       <c r="M203" t="s">
         <v>9</v>
@@ -14954,8 +14954,8 @@
       <c r="F204" t="s">
         <v>9</v>
       </c>
-      <c r="G204" t="s">
-        <v>9</v>
+      <c r="G204">
+        <v>836</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -14964,13 +14964,13 @@
         <v>9</v>
       </c>
       <c r="J204" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" t="s">
         <v>939</v>
       </c>
-      <c r="K204" t="s">
-        <v>9</v>
-      </c>
-      <c r="L204">
-        <v>836</v>
+      <c r="L204" t="s">
+        <v>9</v>
       </c>
       <c r="M204" t="s">
         <v>9</v>
@@ -15011,11 +15011,11 @@
       <c r="F205" t="s">
         <v>9</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205">
+        <v>800</v>
+      </c>
+      <c r="H205" t="s">
         <v>848</v>
-      </c>
-      <c r="H205" t="s">
-        <v>849</v>
       </c>
       <c r="I205" t="s">
         <v>849</v>
@@ -15024,10 +15024,10 @@
         <v>849</v>
       </c>
       <c r="K205" t="s">
-        <v>9</v>
-      </c>
-      <c r="L205">
-        <v>800</v>
+        <v>849</v>
+      </c>
+      <c r="L205" t="s">
+        <v>9</v>
       </c>
       <c r="M205" t="s">
         <v>9</v>
@@ -15068,8 +15068,8 @@
       <c r="F206" t="s">
         <v>9</v>
       </c>
-      <c r="G206" t="s">
-        <v>852</v>
+      <c r="G206">
+        <v>804</v>
       </c>
       <c r="H206" t="s">
         <v>852</v>
@@ -15081,10 +15081,10 @@
         <v>852</v>
       </c>
       <c r="K206" t="s">
-        <v>9</v>
-      </c>
-      <c r="L206">
-        <v>804</v>
+        <v>852</v>
+      </c>
+      <c r="L206" t="s">
+        <v>9</v>
       </c>
       <c r="M206" t="s">
         <v>9</v>
@@ -15125,11 +15125,11 @@
       <c r="F207" t="s">
         <v>9</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207">
+        <v>858</v>
+      </c>
+      <c r="H207" t="s">
         <v>856</v>
-      </c>
-      <c r="H207" t="s">
-        <v>857</v>
       </c>
       <c r="I207" t="s">
         <v>857</v>
@@ -15138,10 +15138,10 @@
         <v>857</v>
       </c>
       <c r="K207" t="s">
-        <v>9</v>
-      </c>
-      <c r="L207">
-        <v>858</v>
+        <v>857</v>
+      </c>
+      <c r="L207" t="s">
+        <v>9</v>
       </c>
       <c r="M207" t="s">
         <v>9</v>
@@ -15182,23 +15182,23 @@
       <c r="F208" t="s">
         <v>9</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208">
+        <v>840</v>
+      </c>
+      <c r="H208" t="s">
         <v>860</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>861</v>
       </c>
-      <c r="I208" t="s">
+      <c r="J208" t="s">
         <v>858</v>
       </c>
-      <c r="J208" t="s">
+      <c r="K208" t="s">
         <v>861</v>
       </c>
-      <c r="K208" t="s">
-        <v>9</v>
-      </c>
-      <c r="L208">
-        <v>840</v>
+      <c r="L208" t="s">
+        <v>9</v>
       </c>
       <c r="M208" t="s">
         <v>9</v>
@@ -15239,23 +15239,23 @@
       <c r="F209" t="s">
         <v>9</v>
       </c>
-      <c r="G209" t="s">
-        <v>9</v>
+      <c r="G209">
+        <v>810</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
       </c>
       <c r="I209" t="s">
-        <v>863</v>
+        <v>9</v>
       </c>
       <c r="J209" t="s">
         <v>863</v>
       </c>
       <c r="K209" t="s">
+        <v>863</v>
+      </c>
+      <c r="L209" t="s">
         <v>958</v>
-      </c>
-      <c r="L209">
-        <v>810</v>
       </c>
       <c r="M209" t="s">
         <v>9</v>
@@ -15296,11 +15296,11 @@
       <c r="F210" t="s">
         <v>9</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210">
+        <v>860</v>
+      </c>
+      <c r="H210" t="s">
         <v>866</v>
-      </c>
-      <c r="H210" t="s">
-        <v>867</v>
       </c>
       <c r="I210" t="s">
         <v>867</v>
@@ -15309,10 +15309,10 @@
         <v>867</v>
       </c>
       <c r="K210" t="s">
-        <v>9</v>
-      </c>
-      <c r="L210">
-        <v>860</v>
+        <v>867</v>
+      </c>
+      <c r="L210" t="s">
+        <v>9</v>
       </c>
       <c r="M210" t="s">
         <v>9</v>
@@ -15353,23 +15353,23 @@
       <c r="F211" t="s">
         <v>9</v>
       </c>
-      <c r="G211" t="s">
-        <v>871</v>
+      <c r="G211">
+        <v>670</v>
       </c>
       <c r="H211" t="s">
         <v>871</v>
       </c>
       <c r="I211" t="s">
-        <v>9</v>
+        <v>871</v>
       </c>
       <c r="J211" t="s">
+        <v>9</v>
+      </c>
+      <c r="K211" t="s">
         <v>871</v>
       </c>
-      <c r="K211" t="s">
+      <c r="L211" t="s">
         <v>957</v>
-      </c>
-      <c r="L211">
-        <v>670</v>
       </c>
       <c r="M211" t="s">
         <v>9</v>
@@ -15410,23 +15410,23 @@
       <c r="F212" t="s">
         <v>9</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212">
+        <v>862</v>
+      </c>
+      <c r="H212" t="s">
         <v>874</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>875</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
         <v>876</v>
       </c>
-      <c r="J212" t="s">
+      <c r="K212" t="s">
         <v>875</v>
       </c>
-      <c r="K212" t="s">
-        <v>9</v>
-      </c>
-      <c r="L212">
-        <v>862</v>
+      <c r="L212" t="s">
+        <v>9</v>
       </c>
       <c r="M212" t="s">
         <v>9</v>
@@ -15467,8 +15467,8 @@
       <c r="F213" t="s">
         <v>9</v>
       </c>
-      <c r="G213" t="s">
-        <v>879</v>
+      <c r="G213">
+        <v>92</v>
       </c>
       <c r="H213" t="s">
         <v>879</v>
@@ -15480,10 +15480,10 @@
         <v>879</v>
       </c>
       <c r="K213" t="s">
+        <v>879</v>
+      </c>
+      <c r="L213" t="s">
         <v>959</v>
-      </c>
-      <c r="L213">
-        <v>92</v>
       </c>
       <c r="M213" t="s">
         <v>967</v>
@@ -15524,11 +15524,11 @@
       <c r="F214" t="s">
         <v>9</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214">
+        <v>704</v>
+      </c>
+      <c r="H214" t="s">
         <v>883</v>
-      </c>
-      <c r="H214" t="s">
-        <v>884</v>
       </c>
       <c r="I214" t="s">
         <v>884</v>
@@ -15537,10 +15537,10 @@
         <v>884</v>
       </c>
       <c r="K214" t="s">
-        <v>9</v>
-      </c>
-      <c r="L214">
-        <v>704</v>
+        <v>884</v>
+      </c>
+      <c r="L214" t="s">
+        <v>9</v>
       </c>
       <c r="M214" t="s">
         <v>973</v>
@@ -15581,11 +15581,11 @@
       <c r="F215" t="s">
         <v>9</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215">
+        <v>548</v>
+      </c>
+      <c r="H215" t="s">
         <v>888</v>
-      </c>
-      <c r="H215" t="s">
-        <v>889</v>
       </c>
       <c r="I215" t="s">
         <v>889</v>
@@ -15594,10 +15594,10 @@
         <v>889</v>
       </c>
       <c r="K215" t="s">
-        <v>9</v>
-      </c>
-      <c r="L215">
-        <v>548</v>
+        <v>889</v>
+      </c>
+      <c r="L215" t="s">
+        <v>9</v>
       </c>
       <c r="M215" t="s">
         <v>9</v>
@@ -15638,11 +15638,11 @@
       <c r="F216" t="s">
         <v>9</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216">
+        <v>882</v>
+      </c>
+      <c r="H216" t="s">
         <v>893</v>
-      </c>
-      <c r="H216" t="s">
-        <v>894</v>
       </c>
       <c r="I216" t="s">
         <v>894</v>
@@ -15651,10 +15651,10 @@
         <v>894</v>
       </c>
       <c r="K216" t="s">
-        <v>9</v>
-      </c>
-      <c r="L216">
-        <v>882</v>
+        <v>894</v>
+      </c>
+      <c r="L216" t="s">
+        <v>9</v>
       </c>
       <c r="M216" t="s">
         <v>9</v>
@@ -15695,11 +15695,11 @@
       <c r="F217" t="s">
         <v>9</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217">
+        <v>887</v>
+      </c>
+      <c r="H217" t="s">
         <v>897</v>
-      </c>
-      <c r="H217" t="s">
-        <v>898</v>
       </c>
       <c r="I217" t="s">
         <v>898</v>
@@ -15708,10 +15708,10 @@
         <v>898</v>
       </c>
       <c r="K217" t="s">
-        <v>9</v>
-      </c>
-      <c r="L217">
-        <v>887</v>
+        <v>898</v>
+      </c>
+      <c r="L217" t="s">
+        <v>9</v>
       </c>
       <c r="M217" t="s">
         <v>9</v>
@@ -15752,8 +15752,8 @@
       <c r="F218" t="s">
         <v>9</v>
       </c>
-      <c r="G218" t="s">
-        <v>9</v>
+      <c r="G218">
+        <v>886</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -15762,13 +15762,13 @@
         <v>9</v>
       </c>
       <c r="J218" t="s">
+        <v>9</v>
+      </c>
+      <c r="K218" t="s">
         <v>934</v>
       </c>
-      <c r="K218" t="s">
-        <v>9</v>
-      </c>
-      <c r="L218">
-        <v>886</v>
+      <c r="L218" t="s">
+        <v>9</v>
       </c>
       <c r="M218" t="s">
         <v>9</v>
@@ -15809,23 +15809,23 @@
       <c r="F219" t="s">
         <v>9</v>
       </c>
-      <c r="G219" t="s">
-        <v>901</v>
+      <c r="G219">
+        <v>890</v>
       </c>
       <c r="H219" t="s">
         <v>901</v>
       </c>
       <c r="I219" t="s">
-        <v>9</v>
+        <v>901</v>
       </c>
       <c r="J219" t="s">
+        <v>9</v>
+      </c>
+      <c r="K219" t="s">
         <v>933</v>
       </c>
-      <c r="K219" t="s">
+      <c r="L219" t="s">
         <v>949</v>
-      </c>
-      <c r="L219">
-        <v>890</v>
       </c>
       <c r="M219" t="s">
         <v>9</v>
@@ -15866,11 +15866,11 @@
       <c r="F220" t="s">
         <v>9</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220">
+        <v>710</v>
+      </c>
+      <c r="H220" t="s">
         <v>905</v>
-      </c>
-      <c r="H220" t="s">
-        <v>906</v>
       </c>
       <c r="I220" t="s">
         <v>906</v>
@@ -15879,10 +15879,10 @@
         <v>906</v>
       </c>
       <c r="K220" t="s">
-        <v>9</v>
-      </c>
-      <c r="L220">
-        <v>710</v>
+        <v>906</v>
+      </c>
+      <c r="L220" t="s">
+        <v>9</v>
       </c>
       <c r="M220" t="s">
         <v>9</v>
@@ -15923,11 +15923,11 @@
       <c r="F221" t="s">
         <v>9</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221">
+        <v>894</v>
+      </c>
+      <c r="H221" t="s">
         <v>910</v>
-      </c>
-      <c r="H221" t="s">
-        <v>911</v>
       </c>
       <c r="I221" t="s">
         <v>911</v>
@@ -15936,10 +15936,10 @@
         <v>911</v>
       </c>
       <c r="K221" t="s">
-        <v>9</v>
-      </c>
-      <c r="L221">
-        <v>894</v>
+        <v>911</v>
+      </c>
+      <c r="L221" t="s">
+        <v>9</v>
       </c>
       <c r="M221" t="s">
         <v>9</v>
@@ -15980,11 +15980,11 @@
       <c r="F222" t="s">
         <v>9</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222">
+        <v>716</v>
+      </c>
+      <c r="H222" t="s">
         <v>915</v>
-      </c>
-      <c r="H222" t="s">
-        <v>916</v>
       </c>
       <c r="I222" t="s">
         <v>916</v>
@@ -15993,10 +15993,10 @@
         <v>916</v>
       </c>
       <c r="K222" t="s">
-        <v>9</v>
-      </c>
-      <c r="L222">
-        <v>716</v>
+        <v>916</v>
+      </c>
+      <c r="L222" t="s">
+        <v>9</v>
       </c>
       <c r="M222" t="s">
         <v>9</v>

--- a/concs/RootRegionLegend.xlsx
+++ b/concs/RootRegionLegend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/concs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74553C5-177C-534E-8CB0-187A8812B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52688A-591F-7949-913C-0359EE6D5BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootCountryLegend" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1009">
   <si>
     <t>Root country number</t>
   </si>
@@ -3061,6 +3061,9 @@
   </si>
   <si>
     <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -3405,9 +3408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15213,7 +15216,7 @@
         <v>9</v>
       </c>
       <c r="Q208" t="s">
-        <v>9</v>
+        <v>1008</v>
       </c>
       <c r="R208" t="s">
         <v>9</v>
